--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187EB10-05BC-447C-BAAA-8A3E9D1F3F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F24FE2-690A-4CF3-8514-A5C2EE0F20BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>STATUS</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Immich Servers and Architectures Study</t>
+  </si>
+  <si>
+    <t>Immich Code Environment Setup With Docker</t>
+  </si>
+  <si>
+    <t>Immich Code Environment Setup Without Docker</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -579,6 +585,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -629,7 +666,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -723,6 +760,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1210,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1321,7 +1367,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="35">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1335,7 +1381,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1347,19 +1393,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="18">
         <v>45870</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1367,37 +1413,49 @@
         <v>4</v>
       </c>
       <c r="D16" s="14">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
         <v>45870</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>45870</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -1502,11 +1560,11 @@
   <mergeCells count="7">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F24FE2-690A-4CF3-8514-A5C2EE0F20BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9333A13-3D15-4978-80EE-5B323210BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailytasklist" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Server" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>STATUS</t>
   </si>
@@ -289,6 +289,27 @@
   </si>
   <si>
     <t>Immich Code Environment Setup Without Docker</t>
+  </si>
+  <si>
+    <t>Research on Immich</t>
+  </si>
+  <si>
+    <t>SQL Database Created</t>
+  </si>
+  <si>
+    <t>SQL Tables Created</t>
+  </si>
+  <si>
+    <t>SQL Tables Relationship Building</t>
+  </si>
+  <si>
+    <t>Sample Data Insertion</t>
+  </si>
+  <si>
+    <t>Settup the File System (Directories and images)</t>
+  </si>
+  <si>
+    <t>Documentation README.md</t>
   </si>
 </sst>
 </file>
@@ -666,7 +687,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -746,6 +767,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1207,10 +1231,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1268,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="31">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1260,7 +1284,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1297,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1310,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1323,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1336,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1325,7 +1349,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1341,7 +1365,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1354,7 +1378,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1367,7 +1391,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="36">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1381,7 +1405,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1417,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1429,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1417,7 +1441,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1429,145 +1453,183 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="14">
         <v>45875</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>45870</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>45870</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="33">
+        <v>45874</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>45871</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="31">
+        <v>45875</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>45872</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>45877</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>45873</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1577,7 +1639,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1587,7 +1649,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1597,17 +1659,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C8">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1617,7 +1669,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C36">
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1627,8 +1689,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -1637,8 +1699,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C31">
-    <cfRule type="iconSet" priority="12">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -1657,7 +1719,7 @@
           <x14:formula1>
             <xm:f>Status!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C36</xm:sqref>
+          <xm:sqref>C4:C29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9333A13-3D15-4978-80EE-5B323210BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5D03F-AAAB-400C-B1F4-48C1D669F4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>STATUS</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>Documentation README.md</t>
+  </si>
+  <si>
+    <t>Connect to the database with Python</t>
+  </si>
+  <si>
+    <t>Python script that reads unprocessed media entries from the SQL Server database</t>
+  </si>
+  <si>
+    <t>Face Detection Module of Immich Implementation</t>
+  </si>
+  <si>
+    <t>Documentation README.md for SQL database building</t>
   </si>
 </sst>
 </file>
@@ -687,7 +699,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -771,6 +783,9 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,6 +808,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1231,16 +1252,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="79.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="10.875" style="2"/>
@@ -1268,7 +1289,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="32">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1284,7 +1305,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1297,7 +1318,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1331,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1344,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1357,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1349,7 +1370,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1365,7 +1386,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1399,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1391,7 +1412,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="37">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1405,7 +1426,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1417,7 +1438,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1429,7 +1450,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1440,8 +1461,8 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1452,8 +1473,8 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1464,11 +1485,11 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>45870</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1478,74 +1499,74 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+    <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>45874</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="14">
         <v>45877</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="41">
         <v>45877</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="14">
         <v>45877</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="41">
         <v>45877</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="14">
         <v>45877</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+    <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>5</v>
@@ -1554,52 +1575,434 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="14">
         <v>45877</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="12" t="s">
+    <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="41">
         <v>45877</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+    <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="41">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>45884</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>45876</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>45877</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>45878</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <v>45879</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>45880</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>45881</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C55">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C50">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1609,77 +2012,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1689,7 +2022,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C52">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1699,7 +2032,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C53">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1719,7 +2052,7 @@
           <x14:formula1>
             <xm:f>Status!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C29</xm:sqref>
+          <xm:sqref>C4:C55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5D03F-AAAB-400C-B1F4-48C1D669F4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A29AE39-9727-4FA7-9F2E-7847014B3C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>STATUS</t>
   </si>
@@ -322,6 +322,30 @@
   </si>
   <si>
     <t>Documentation README.md for SQL database building</t>
+  </si>
+  <si>
+    <t>Retina Face Implementation in Python</t>
+  </si>
+  <si>
+    <t>Face Cropping</t>
+  </si>
+  <si>
+    <t>Pre-Processing and Post processing of Input Image</t>
+  </si>
+  <si>
+    <t>Database Update after new entry of thumbnails</t>
+  </si>
+  <si>
+    <t>Python Setup for Retinaface</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>config.py file implementation</t>
+  </si>
+  <si>
+    <t>SQL Query Processing through Python</t>
   </si>
 </sst>
 </file>
@@ -538,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -649,6 +673,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -699,7 +745,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -786,34 +832,40 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1289,7 +1341,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="40">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1305,7 +1357,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1370,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1331,7 +1383,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1396,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1409,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1518,10 +1570,10 @@
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="33">
         <v>45877</v>
       </c>
     </row>
@@ -1542,10 +1594,10 @@
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="33">
         <v>45877</v>
       </c>
     </row>
@@ -1592,10 +1644,10 @@
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="33">
         <v>45877</v>
       </c>
     </row>
@@ -1616,15 +1668,15 @@
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="33">
         <v>45884</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1638,69 +1690,115 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="43">
+        <v>45876</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="33">
+        <v>45884</v>
+      </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
-        <v>45876</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="14">
+        <v>45884</v>
+      </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="33">
+        <v>45884</v>
+      </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="14">
+        <v>45884</v>
+      </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="33">
+        <v>45884</v>
+      </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
-        <v>45877</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="14">
+        <v>45884</v>
+      </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="33">
+        <v>45884</v>
+      </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="14">
+        <v>45884</v>
+      </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
-        <v>45878</v>
+        <v>45877</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -1777,7 +1875,7 @@
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
+      <c r="A51" s="40">
         <v>45881</v>
       </c>
       <c r="B51" s="8"/>
@@ -1785,41 +1883,40 @@
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A35"/>
+  <mergeCells count="9">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -2113,7 +2210,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A29AE39-9727-4FA7-9F2E-7847014B3C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839C474-5FB4-4F40-A3FD-7EBD1BB0A589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>STATUS</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Face Cropping</t>
   </si>
   <si>
-    <t>Pre-Processing and Post processing of Input Image</t>
-  </si>
-  <si>
     <t>Database Update after new entry of thumbnails</t>
   </si>
   <si>
@@ -346,6 +343,24 @@
   </si>
   <si>
     <t>SQL Query Processing through Python</t>
+  </si>
+  <si>
+    <t>Cropping the image face using IMMICH methodology</t>
+  </si>
+  <si>
+    <t>main.py file setup</t>
+  </si>
+  <si>
+    <t>Documentation of requirements.txt</t>
+  </si>
+  <si>
+    <t>Pre-Processing and Post processing of Input and Output</t>
+  </si>
+  <si>
+    <t>Affine Transformation Implementation (Face Alignment)</t>
+  </si>
+  <si>
+    <t>Cropping the face and Implementation of Margin</t>
   </si>
 </sst>
 </file>
@@ -562,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -673,28 +688,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -745,7 +738,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -829,43 +822,34 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,8 +1290,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1325,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="39">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1357,7 +1341,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1370,7 +1354,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1367,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1380,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1393,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +1406,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="36">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1438,7 +1422,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1435,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1464,7 +1448,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1478,7 +1462,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1474,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1486,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1514,7 +1498,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1526,7 +1510,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1552,7 +1536,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="36">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1566,19 +1550,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="32">
         <v>45877</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1590,19 +1574,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="33">
+      <c r="C23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="32">
         <v>45877</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1614,7 +1598,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1628,7 +1612,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1640,19 +1624,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="33">
+      <c r="C27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="32">
         <v>45877</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1664,19 +1648,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="33">
+      <c r="C29" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="32">
         <v>45884</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1690,22 +1674,22 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="35">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="32">
         <v>45884</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1718,22 +1702,22 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="32">
         <v>45884</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>5</v>
@@ -1744,22 +1728,22 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="32">
         <v>45884</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>4</v>
@@ -1771,22 +1755,22 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="32">
         <v>45884</v>
       </c>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>5</v>
@@ -1797,129 +1781,188 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>45877</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="32">
+        <v>45884</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="14">
+        <v>45884</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="32">
+        <v>45884</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="14">
+        <v>45884</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="32">
+        <v>45884</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="35">
+        <v>45880</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="14">
+        <v>45884</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
-        <v>45879</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="32">
+        <v>45884</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
-        <v>45880</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="14">
+        <v>45884</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="10"/>
+      <c r="A47" s="36">
+        <v>45881</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="10"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>45881</v>
+      <c r="A51" s="39">
+        <v>45882</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="10"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="10"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A51:A55"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1929,7 +1972,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1939,7 +1982,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1949,7 +1992,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1959,7 +2002,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1969,8 +2012,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="iconSet" priority="17">
+  <conditionalFormatting sqref="C8">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -1979,7 +2022,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1989,17 +2042,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2009,7 +2052,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2019,7 +2062,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C55">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2029,67 +2142,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C55">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2099,17 +2152,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C50">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2119,7 +2162,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C53">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2129,7 +2172,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C41">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839C474-5FB4-4F40-A3FD-7EBD1BB0A589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997BFC61-100B-49B9-A1AC-D77B692BAEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
   <si>
     <t>STATUS</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t>Cropping the face and Implementation of Margin</t>
+  </si>
+  <si>
+    <t>Demo Video making and editing</t>
+  </si>
+  <si>
+    <t>Database Created based on new architecture</t>
+  </si>
+  <si>
+    <t>Implementation of DBSCAN in clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedding generating </t>
   </si>
 </sst>
 </file>
@@ -738,7 +750,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -828,13 +840,19 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,11 +864,8 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1290,8 +1305,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1340,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="36">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1341,7 +1356,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1369,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1382,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1395,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1408,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1421,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="38">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1422,7 +1437,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1435,7 +1450,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1448,7 +1463,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1462,7 +1477,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1489,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1501,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1498,7 +1513,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1510,7 +1525,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1536,7 +1551,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="38">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1550,7 +1565,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1562,7 +1577,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1574,7 +1589,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1586,7 +1601,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1598,7 +1613,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="33">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1612,7 +1627,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1624,7 +1639,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
@@ -1636,7 +1651,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1648,7 +1663,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
@@ -1660,7 +1675,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1674,7 +1689,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="33">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1689,7 +1704,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1702,7 +1717,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1715,7 +1730,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1728,7 +1743,7 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -1741,7 +1756,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
@@ -1755,7 +1770,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
@@ -1768,7 +1783,7 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1781,7 +1796,7 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+      <c r="A39" s="33">
         <v>45877</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1795,7 +1810,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1807,7 +1822,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
@@ -1819,7 +1834,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="12" t="s">
         <v>86</v>
       </c>
@@ -1831,7 +1846,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -1843,7 +1858,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
+      <c r="A44" s="33">
         <v>45880</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -1857,7 +1872,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="8" t="s">
         <v>90</v>
       </c>
@@ -1869,7 +1884,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
@@ -1881,33 +1896,57 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+      <c r="A47" s="38">
         <v>45881</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="32">
+        <v>45884</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="32">
+        <v>45891</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39">
+      <c r="A51" s="36">
         <v>45882</v>
       </c>
       <c r="B51" s="8"/>
@@ -1915,25 +1954,25 @@
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="21"/>
       <c r="C53" s="31"/>
       <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="21"/>
       <c r="C55" s="31"/>
       <c r="D55" s="32"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997BFC61-100B-49B9-A1AC-D77B692BAEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644D9092-E59D-45D7-BAF2-BC23054BBBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
   <si>
     <t>STATUS</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t xml:space="preserve">Embedding generating </t>
+  </si>
+  <si>
+    <t>Image cropping issues resolving</t>
+  </si>
+  <si>
+    <t>openl3 for clustering</t>
+  </si>
+  <si>
+    <t>CLIP encoder for embedding generation</t>
   </si>
 </sst>
 </file>
@@ -750,7 +759,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -840,6 +849,12 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,9 +878,6 @@
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1305,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1352,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="38">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1356,7 +1368,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1381,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1394,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1407,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1408,7 +1420,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1433,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="40">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1437,7 +1449,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1462,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1463,7 +1475,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="35">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1477,7 +1489,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1501,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1513,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1513,7 +1525,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1525,7 +1537,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1551,7 +1563,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="40">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1565,7 +1577,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1577,7 +1589,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1589,7 +1601,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1601,7 +1613,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1613,7 +1625,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="35">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1627,7 +1639,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1639,7 +1651,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
@@ -1651,7 +1663,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1663,7 +1675,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
@@ -1675,7 +1687,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1689,7 +1701,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="35">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1704,7 +1716,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1717,7 +1729,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1730,7 +1742,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1743,7 +1755,7 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -1756,7 +1768,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
@@ -1770,7 +1782,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
@@ -1783,7 +1795,7 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1796,7 +1808,7 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="35">
         <v>45877</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1810,7 +1822,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1822,7 +1834,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
@@ -1834,7 +1846,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="12" t="s">
         <v>86</v>
       </c>
@@ -1846,7 +1858,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -1858,7 +1870,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33">
+      <c r="A44" s="35">
         <v>45880</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -1872,7 +1884,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="8" t="s">
         <v>90</v>
       </c>
@@ -1884,7 +1896,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
@@ -1896,7 +1908,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
+      <c r="A47" s="40">
         <v>45881</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -1910,7 +1922,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -1922,8 +1934,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="31" t="s">
@@ -1934,7 +1946,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -1946,36 +1958,66 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="38">
         <v>45882</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="32">
+        <v>45884</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="32">
+        <v>45891</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="32">
+        <v>45891</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1992,6 +2034,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2001,7 +2063,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2011,7 +2073,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2021,7 +2083,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2031,17 +2093,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
+  <conditionalFormatting sqref="C8">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2051,7 +2103,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2061,17 +2133,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2081,7 +2143,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2091,67 +2223,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C55">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2161,37 +2233,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
+  <conditionalFormatting sqref="C41">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2201,7 +2243,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C52:C53">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2211,7 +2253,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C55">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644D9092-E59D-45D7-BAF2-BC23054BBBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B05CFD-8CB5-4DB5-98EE-6B2704B84935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>STATUS</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>CLIP encoder for embedding generation</t>
+  </si>
+  <si>
+    <t>Embedding Generation (FaceNet)</t>
+  </si>
+  <si>
+    <t>Clustering (DBSCAN)</t>
+  </si>
+  <si>
+    <t>Clustering (HDBSCAN)</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -758,8 +767,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -879,8 +894,11 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Flag Column" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -899,6 +917,8 @@
     <cellStyle name="Linked Cell 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Style 1" xfId="25" xr:uid="{8CD6DCF6-A956-4124-993F-94187242CD81}"/>
+    <cellStyle name="Style 2" xfId="26" xr:uid="{4B636D9E-CDA8-410B-AC7B-39095AC6B1F5}"/>
     <cellStyle name="Table details center aligned" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Table details left aligned" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Table details right aligned" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -1315,10 +1335,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:D55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2019,8 +2039,59 @@
         <v>45891</v>
       </c>
     </row>
+    <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38">
+        <v>45884</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="14">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="18">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="14">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="18"/>
+    </row>
+    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A56:A60"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A4:A9"/>
@@ -2034,6 +2105,46 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2043,7 +2154,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2053,17 +2164,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C8">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2073,7 +2174,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2083,7 +2194,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2093,7 +2204,87 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2103,77 +2294,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2183,27 +2304,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C41">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2213,17 +2314,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52:C53">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2233,7 +2324,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C55">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2243,7 +2354,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
+  <conditionalFormatting sqref="C57:C58">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2253,7 +2364,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C60">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2273,7 +2384,7 @@
           <x14:formula1>
             <xm:f>Status!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C55</xm:sqref>
+          <xm:sqref>C4:C60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B05CFD-8CB5-4DB5-98EE-6B2704B84935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C66793-C9E8-4BD1-A08C-279E3E3EDB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
   <si>
     <t>STATUS</t>
   </si>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>Clustering (HDBSCAN)</t>
+  </si>
+  <si>
+    <t>Database Update (Faces, and Persons)</t>
+  </si>
+  <si>
+    <t>Reclustering</t>
+  </si>
+  <si>
+    <t>Automation of Detection and Recognition Pipelines</t>
+  </si>
+  <si>
+    <t>Documentation file - README.md</t>
+  </si>
+  <si>
+    <t>Troubleshooting - Persons table (Foreign Key Problems)</t>
   </si>
 </sst>
 </file>
@@ -774,7 +789,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -870,6 +885,21 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,18 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1335,10 +1353,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1390,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="43">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1388,7 +1406,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1401,7 +1419,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1432,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1445,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +1458,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1471,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="37">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1469,7 +1487,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1500,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1495,7 +1513,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="40">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1509,7 +1527,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1539,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1533,7 +1551,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1545,7 +1563,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1557,7 +1575,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1583,7 +1601,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="37">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1597,7 +1615,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1609,7 +1627,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1621,7 +1639,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1633,7 +1651,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1645,7 +1663,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="40">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1659,7 +1677,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1671,7 +1689,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
@@ -1683,7 +1701,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1695,7 +1713,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
@@ -1707,7 +1725,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1721,7 +1739,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="40">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1736,7 +1754,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1749,7 +1767,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1762,7 +1780,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1775,7 +1793,7 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -1788,7 +1806,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
@@ -1802,7 +1820,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
@@ -1815,7 +1833,7 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1828,7 +1846,7 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+      <c r="A39" s="40">
         <v>45877</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1842,7 +1860,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1854,7 +1872,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
@@ -1866,7 +1884,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="12" t="s">
         <v>86</v>
       </c>
@@ -1878,7 +1896,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -1890,7 +1908,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
+      <c r="A44" s="40">
         <v>45880</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -1904,7 +1922,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="8" t="s">
         <v>90</v>
       </c>
@@ -1916,7 +1934,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
@@ -1928,7 +1946,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
+      <c r="A47" s="37">
         <v>45881</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -1942,7 +1960,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -1954,7 +1972,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -1966,7 +1984,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -1978,7 +1996,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
+      <c r="A51" s="43">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -1992,7 +2010,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2004,7 +2022,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2016,7 +2034,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2028,7 +2046,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2040,7 +2058,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38">
+      <c r="A56" s="37">
         <v>45884</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -2054,8 +2072,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C57" s="20" t="s">
@@ -2078,20 +2096,1498 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
+      <c r="A59" s="37">
+        <v>45887</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="18">
+        <v>45891</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="14">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="18">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="14">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="18">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="14">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="18"/>
+    </row>
+    <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="18"/>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="18"/>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="18"/>
+    </row>
+    <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="36"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="36"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="18"/>
+    </row>
+    <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="36"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="18"/>
+    </row>
+    <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="36"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="36"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="18"/>
+    </row>
+    <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="36"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="18"/>
+    </row>
+    <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="36"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="36"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="18"/>
+    </row>
+    <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="36"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="18"/>
+    </row>
+    <row r="100" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="36"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="36"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="18"/>
+    </row>
+    <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="36"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="36"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="18"/>
+    </row>
+    <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="36"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="36"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="36"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="36"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="18"/>
+    </row>
+    <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="36"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="36"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="18"/>
+    </row>
+    <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="36"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="36"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="18"/>
+    </row>
+    <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="36"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="36"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="18"/>
+    </row>
+    <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="36"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="36"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="18"/>
+    </row>
+    <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="36"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="36"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="18"/>
+    </row>
+    <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="36"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="36"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="18"/>
+    </row>
+    <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="36"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="36"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="18"/>
+    </row>
+    <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="36"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+    </row>
+    <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="36"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="18"/>
+    </row>
+    <row r="124" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="36"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="36"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="18"/>
+    </row>
+    <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="36"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="36"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="18"/>
+    </row>
+    <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="36"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="36"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="18"/>
+    </row>
+    <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="36"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="36"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="18"/>
+    </row>
+    <row r="132" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="36"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="36"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="18"/>
+    </row>
+    <row r="134" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="36"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="14"/>
+    </row>
+    <row r="135" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="36"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="18"/>
+    </row>
+    <row r="136" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="36"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="14"/>
+    </row>
+    <row r="137" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="36"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="18"/>
+    </row>
+    <row r="138" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="36"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="36"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="18"/>
+    </row>
+    <row r="140" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="36"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="36"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="18"/>
+    </row>
+    <row r="142" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="36"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="36"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="18"/>
+    </row>
+    <row r="144" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="36"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="36"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="18"/>
+    </row>
+    <row r="146" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="36"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="36"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="18"/>
+    </row>
+    <row r="148" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="36"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="14"/>
+    </row>
+    <row r="149" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="36"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="18"/>
+    </row>
+    <row r="150" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="36"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="36"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="18"/>
+    </row>
+    <row r="152" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="36"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="36"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="18"/>
+    </row>
+    <row r="154" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="36"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="36"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="18"/>
+    </row>
+    <row r="156" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="36"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="36"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="18"/>
+    </row>
+    <row r="158" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="36"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="36"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="18"/>
+    </row>
+    <row r="160" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="36"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="14"/>
+    </row>
+    <row r="161" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="36"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="18"/>
+    </row>
+    <row r="162" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="36"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+    </row>
+    <row r="163" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="36"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="18"/>
+    </row>
+    <row r="164" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="36"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="36"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="18"/>
+    </row>
+    <row r="166" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="36"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="36"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="18"/>
+    </row>
+    <row r="168" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="36"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="36"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="18"/>
+    </row>
+    <row r="170" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="36"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="36"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="18"/>
+    </row>
+    <row r="172" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="36"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="36"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="18"/>
+    </row>
+    <row r="174" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="36"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="36"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="18"/>
+    </row>
+    <row r="176" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="36"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="36"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="18"/>
+    </row>
+    <row r="178" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="36"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="36"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="18"/>
+    </row>
+    <row r="180" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="36"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="36"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="18"/>
+    </row>
+    <row r="182" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="36"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="36"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="18"/>
+    </row>
+    <row r="184" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="36"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+    </row>
+    <row r="185" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="36"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="18"/>
+    </row>
+    <row r="186" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="36"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="14"/>
+    </row>
+    <row r="187" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="36"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="18"/>
+    </row>
+    <row r="188" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="36"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="14"/>
+    </row>
+    <row r="189" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="36"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="18"/>
+    </row>
+    <row r="190" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="36"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="14"/>
+    </row>
+    <row r="191" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="36"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="18"/>
+    </row>
+    <row r="192" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="36"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="14"/>
+    </row>
+    <row r="193" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="36"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="18"/>
+    </row>
+    <row r="194" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="36"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="14"/>
+    </row>
+    <row r="195" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="36"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="18"/>
+    </row>
+    <row r="196" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="36"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="14"/>
+    </row>
+    <row r="197" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="36"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="18"/>
+    </row>
+    <row r="198" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="36"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+    </row>
+    <row r="199" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="36"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="18"/>
+    </row>
+    <row r="200" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="36"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="14"/>
+    </row>
+    <row r="201" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="36"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="18"/>
+    </row>
+    <row r="202" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="36"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="14"/>
+    </row>
+    <row r="203" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="36"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="18"/>
+    </row>
+    <row r="204" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="36"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="14"/>
+    </row>
+    <row r="205" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="36"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="18"/>
+    </row>
+    <row r="206" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="36"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="14"/>
+    </row>
+    <row r="207" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="36"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="18"/>
+    </row>
+    <row r="208" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="36"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="14"/>
+    </row>
+    <row r="209" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="36"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="18"/>
+    </row>
+    <row r="210" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="36"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="14"/>
+    </row>
+    <row r="211" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="36"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="18"/>
+    </row>
+    <row r="212" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="36"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="14"/>
+    </row>
+    <row r="213" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="36"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="18"/>
+    </row>
+    <row r="214" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="36"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="14"/>
+    </row>
+    <row r="215" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="36"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="18"/>
+    </row>
+    <row r="216" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="36"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="14"/>
+    </row>
+    <row r="217" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="36"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="18"/>
+    </row>
+    <row r="218" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="36"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="14"/>
+    </row>
+    <row r="219" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="36"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="18"/>
+    </row>
+    <row r="220" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="36"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="14"/>
+    </row>
+    <row r="221" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="36"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="18"/>
+    </row>
+    <row r="222" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="36"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="14"/>
+    </row>
+    <row r="223" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="36"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="18"/>
+    </row>
+    <row r="224" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="36"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="14"/>
+    </row>
+    <row r="225" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="36"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="18"/>
+    </row>
+    <row r="226" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="36"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="14"/>
+    </row>
+    <row r="227" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="36"/>
+      <c r="B227" s="19"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="18"/>
+    </row>
+    <row r="228" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="36"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="14"/>
+    </row>
+    <row r="229" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="36"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="18"/>
+    </row>
+    <row r="230" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="36"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="14"/>
+    </row>
+    <row r="231" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="36"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="18"/>
+    </row>
+    <row r="232" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="36"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="14"/>
+    </row>
+    <row r="233" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="36"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="18"/>
+    </row>
+    <row r="234" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="36"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="14"/>
+    </row>
+    <row r="235" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="36"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="18"/>
+    </row>
+    <row r="236" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="36"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="14"/>
+    </row>
+    <row r="237" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="36"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="18"/>
+    </row>
+    <row r="238" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="36"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="14"/>
+    </row>
+    <row r="239" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="36"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="18"/>
+    </row>
+    <row r="240" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="36"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="14"/>
+    </row>
+    <row r="241" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="36"/>
+      <c r="B241" s="19"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="18"/>
+    </row>
+    <row r="242" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="36"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="14"/>
+    </row>
+    <row r="243" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="36"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="18"/>
+    </row>
+    <row r="244" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="36"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="14"/>
+    </row>
+    <row r="245" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="36"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="18"/>
+    </row>
+    <row r="246" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="36"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="14"/>
+    </row>
+    <row r="247" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="36"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="18"/>
+    </row>
+    <row r="248" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="36"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="14"/>
+    </row>
+    <row r="249" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="36"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="18"/>
+    </row>
+    <row r="250" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="36"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="14"/>
+    </row>
+    <row r="251" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="36"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="18"/>
+    </row>
+    <row r="252" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="36"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="14"/>
+    </row>
+    <row r="253" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="36"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="18"/>
+    </row>
+    <row r="254" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="36"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="14"/>
+    </row>
+    <row r="255" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="36"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="18"/>
+    </row>
+    <row r="256" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="36"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="14"/>
+    </row>
+    <row r="257" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="36"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="18"/>
+    </row>
+    <row r="258" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="36"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="14"/>
+    </row>
+    <row r="259" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="36"/>
+      <c r="B259" s="19"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="18"/>
+    </row>
+    <row r="260" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="36"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="14"/>
+    </row>
+    <row r="261" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="36"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="18"/>
+    </row>
+    <row r="262" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="36"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="14"/>
+    </row>
+    <row r="263" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="36"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="18"/>
+    </row>
+    <row r="264" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="36"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="14"/>
+    </row>
+    <row r="265" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="36"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="18"/>
+    </row>
+    <row r="266" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="36"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="14"/>
+    </row>
+    <row r="267" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="36"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="18"/>
+    </row>
+    <row r="268" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="36"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="14"/>
+    </row>
+    <row r="269" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="36"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="18"/>
+    </row>
+    <row r="270" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="36"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="14"/>
+    </row>
+    <row r="271" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="36"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="18"/>
+    </row>
+    <row r="272" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="36"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="14"/>
+    </row>
+    <row r="273" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="36"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="18"/>
+    </row>
+    <row r="274" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="36"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="14"/>
+    </row>
+    <row r="275" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="36"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="18"/>
+    </row>
+    <row r="276" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="36"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="14"/>
+    </row>
+    <row r="277" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="36"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="18"/>
+    </row>
+    <row r="278" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="36"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="14"/>
+    </row>
+    <row r="279" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="36"/>
+      <c r="B279" s="19"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="18"/>
+    </row>
+    <row r="280" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="36"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="14"/>
+    </row>
+    <row r="281" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="36"/>
+      <c r="B281" s="19"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="18"/>
+    </row>
+    <row r="282" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="36"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="14"/>
+    </row>
+    <row r="283" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="36"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="18"/>
+    </row>
+    <row r="284" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="36"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="14"/>
+    </row>
+    <row r="285" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="36"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="18"/>
+    </row>
+    <row r="286" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="36"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="14"/>
+    </row>
+    <row r="287" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="36"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="18"/>
+    </row>
+    <row r="288" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="36"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="14"/>
+    </row>
+    <row r="289" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="36"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="18"/>
+    </row>
+    <row r="290" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="36"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="14"/>
+    </row>
+    <row r="291" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="36"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="18"/>
+    </row>
+    <row r="292" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="36"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="36"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="18"/>
+    </row>
+    <row r="294" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="36"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="14"/>
+    </row>
+    <row r="295" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="36"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="18"/>
+    </row>
+    <row r="296" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="36"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="14"/>
+    </row>
+    <row r="297" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="36"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="18"/>
+    </row>
+    <row r="298" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="36"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="14"/>
+    </row>
+    <row r="299" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="36"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="18"/>
+    </row>
+    <row r="300" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="36"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A56:A60"/>
+  <mergeCells count="12">
+    <mergeCell ref="A56:A58"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A4:A9"/>
@@ -2102,9 +3598,2390 @@
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A59:A64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="271">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="276">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="iconSet" priority="263">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="255">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="254">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="253">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="iconSet" priority="252">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="iconSet" priority="249">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53">
+    <cfRule type="iconSet" priority="248">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="iconSet" priority="247">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="iconSet" priority="246">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="iconSet" priority="245">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C58">
+    <cfRule type="iconSet" priority="244">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="iconSet" priority="242">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="iconSet" priority="241">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="238">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="237">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="iconSet" priority="233">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="219">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="218">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="216">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="213">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
     <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2114,7 +5991,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C273">
     <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2124,7 +6001,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C274">
     <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2134,7 +6011,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C275">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2144,7 +6021,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C276">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2154,7 +6031,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
+  <conditionalFormatting sqref="C277">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2164,7 +6041,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2174,17 +6061,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C280">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2194,7 +6071,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C281">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2204,7 +6081,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C282">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2214,7 +6091,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2224,7 +6111,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C285">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2234,7 +6121,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C286">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2244,7 +6131,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C287">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2254,7 +6141,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C288">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2264,7 +6151,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C289">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2274,7 +6161,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C290">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2284,17 +6171,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="18">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C291">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2304,7 +6181,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2314,7 +6211,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
+  <conditionalFormatting sqref="C295">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2324,7 +6221,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C296">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2334,7 +6231,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C297">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2344,7 +6241,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C298">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2354,7 +6251,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58">
+  <conditionalFormatting sqref="C299">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2364,7 +6261,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C300">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2384,7 +6281,7 @@
           <x14:formula1>
             <xm:f>Status!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C60</xm:sqref>
+          <xm:sqref>C4:C300</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C66793-C9E8-4BD1-A08C-279E3E3EDB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B129F-C745-4447-BFC5-1C3718743302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
   <si>
     <t>STATUS</t>
   </si>
@@ -406,6 +409,18 @@
   </si>
   <si>
     <t>Troubleshooting - Persons table (Foreign Key Problems)</t>
+  </si>
+  <si>
+    <t>Documentation README.md - editted</t>
+  </si>
+  <si>
+    <t>Demo Video making and editing - Detection &amp; Recognition Automated Pipeline</t>
+  </si>
+  <si>
+    <t>Troubleshooting - Log File Generation</t>
+  </si>
+  <si>
+    <t>Face Recognition System - with automated processing</t>
   </si>
 </sst>
 </file>
@@ -789,7 +804,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -913,6 +928,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1355,8 +1376,8 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2170,34 +2191,66 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="18"/>
+      <c r="A65" s="37">
+        <v>45888</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="18">
+        <v>45891</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="18"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="18">
+        <v>45891</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="18"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="18">
+        <v>45891</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="36"/>
@@ -3586,7 +3639,9 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A69"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
@@ -3598,7 +3653,6 @@
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A59:A64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B129F-C745-4447-BFC5-1C3718743302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBB134-8C1B-4D86-92A8-370C409FAE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
   <si>
     <t>STATUS</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>Face Recognition System - with automated processing</t>
+  </si>
+  <si>
+    <t>Reclustering - DBSCAN+Cosine similarity</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook - Face_Recognition_System(FRS).ipynb</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -928,12 +934,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1376,8 +1376,8 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2229,7 +2229,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2253,16 +2253,28 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="18"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="18">
+        <v>45891</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36"/>
@@ -3641,7 +3653,7 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A65:A71"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CBB134-8C1B-4D86-92A8-370C409FAE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACAA14-964A-4E5E-9455-694CD8D3DE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
   <si>
     <t>STATUS</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>Jupyter Notebook - Face_Recognition_System(FRS).ipynb</t>
+  </si>
+  <si>
+    <t>Demo Video making and editing - Detection &amp; Recognition Automated Pipeline (processing and results)</t>
+  </si>
+  <si>
+    <t>Troubleshooting - Re-Clustering Module</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -934,6 +940,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1376,14 +1388,14 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="93.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="10.875" style="2"/>
@@ -2277,22 +2289,42 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
+      <c r="A72" s="37">
+        <v>45889</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="18"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="18">
+        <v>45891</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36"/>
@@ -3651,23 +3683,44 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A25:A30"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A30"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="273">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="271">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3677,7 +3730,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="270">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3687,7 +3740,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="269">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3697,7 +3750,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="268">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3707,17 +3760,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="iconSet" priority="267">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
+  <conditionalFormatting sqref="C8">
     <cfRule type="iconSet" priority="266">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3727,7 +3770,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="278">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="264">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3737,17 +3800,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="276">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="263">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3757,7 +3810,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="255">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
     <cfRule type="iconSet" priority="262">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3767,67 +3890,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="259">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="255">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="254">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3837,37 +3900,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="iconSet" priority="253">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="252">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C41">
+    <cfRule type="iconSet" priority="251">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53">
+    <cfRule type="iconSet" priority="250">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
     <cfRule type="iconSet" priority="249">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3877,7 +3930,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
+  <conditionalFormatting sqref="C59">
     <cfRule type="iconSet" priority="248">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3887,7 +3940,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="247">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3897,7 +3950,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C57:C58">
     <cfRule type="iconSet" priority="246">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3907,7 +3960,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C60">
     <cfRule type="iconSet" priority="245">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3917,7 +3970,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58">
+  <conditionalFormatting sqref="C61">
     <cfRule type="iconSet" priority="244">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3927,7 +3980,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C62">
     <cfRule type="iconSet" priority="243">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3937,27 +3990,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="242">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="241">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="240">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="239">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
     <cfRule type="iconSet" priority="238">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3967,7 +4020,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C66">
     <cfRule type="iconSet" priority="237">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3977,7 +4030,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C67">
     <cfRule type="iconSet" priority="236">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3987,7 +4040,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C68">
     <cfRule type="iconSet" priority="235">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3997,7 +4050,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C69">
     <cfRule type="iconSet" priority="234">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4007,7 +4060,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C70">
     <cfRule type="iconSet" priority="233">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4017,7 +4070,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="C71">
     <cfRule type="iconSet" priority="232">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4027,18 +4080,2278 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="230">
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="219">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="218">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="216">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="iconSet" priority="213">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C297">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C300">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4048,2286 +6361,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="227">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="226">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="224">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="223">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="221">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="219">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="216">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="215">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="214">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="iconSet" priority="212">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="iconSet" priority="211">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="22">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="18">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C297">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C300">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACAA14-964A-4E5E-9455-694CD8D3DE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092A7A2-E198-455A-A7EA-45DDDAA15F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
   <si>
     <t>STATUS</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Troubleshooting - Re-Clustering Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing - Face Recognition System </t>
   </si>
 </sst>
 </file>
@@ -921,6 +924,18 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,18 +949,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1392,7 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1426,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="40">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1439,7 +1442,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1455,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1468,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1481,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1491,7 +1494,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1523,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1533,7 +1536,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1546,7 +1549,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="44">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1560,7 +1563,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1572,7 +1575,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1587,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1596,7 +1599,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1608,7 +1611,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1648,7 +1651,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1660,7 +1663,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1672,7 +1675,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1684,7 +1687,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1696,7 +1699,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="44">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1710,7 +1713,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1722,7 +1725,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
@@ -1734,7 +1737,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1746,7 +1749,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
@@ -1758,7 +1761,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1772,7 +1775,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
+      <c r="A31" s="44">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1787,7 +1790,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1800,7 +1803,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1813,7 +1816,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1826,7 +1829,7 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
@@ -1853,7 +1856,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
@@ -1866,7 +1869,7 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1879,7 +1882,7 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
+      <c r="A39" s="44">
         <v>45877</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1893,7 +1896,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1905,7 +1908,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
@@ -1917,7 +1920,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="12" t="s">
         <v>86</v>
       </c>
@@ -1929,7 +1932,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -1941,7 +1944,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
+      <c r="A44" s="44">
         <v>45880</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -1955,7 +1958,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="8" t="s">
         <v>90</v>
       </c>
@@ -1967,7 +1970,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
@@ -1993,7 +1996,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2005,7 +2008,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2017,7 +2020,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2029,7 +2032,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
+      <c r="A51" s="40">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2043,7 +2046,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2055,7 +2058,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2067,7 +2070,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2079,7 +2082,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2105,7 +2108,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2117,7 +2120,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2143,7 +2146,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2155,7 +2158,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2167,7 +2170,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2179,7 +2182,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2191,7 +2194,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2217,7 +2220,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2229,7 +2232,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2241,7 +2244,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2253,7 +2256,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2265,7 +2268,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2277,7 +2280,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2303,7 +2306,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="19" t="s">
         <v>111</v>
       </c>
@@ -2315,7 +2318,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="12" t="s">
         <v>113</v>
       </c>
@@ -2327,16 +2330,30 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="18"/>
+      <c r="A75" s="37">
+        <v>45890</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="18">
+        <v>45891</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="14">
+        <v>45891</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
@@ -3683,7 +3700,8 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A20:A24"/>
@@ -3701,6 +3719,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="274">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
     <cfRule type="iconSet" priority="273">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3710,7 +3738,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="272">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3720,7 +3748,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="271">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3730,7 +3758,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="270">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3740,7 +3768,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="269">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3750,17 +3778,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="iconSet" priority="268">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C8">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="279">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="iconSet" priority="266">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3770,17 +3808,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="278">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="265">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3790,7 +3818,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="264">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3800,7 +3828,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
     <cfRule type="iconSet" priority="263">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3810,67 +3908,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="259">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="255">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3880,27 +3918,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="254">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C41">
+    <cfRule type="iconSet" priority="252">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53">
     <cfRule type="iconSet" priority="251">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3910,7 +3938,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
+  <conditionalFormatting sqref="C55">
     <cfRule type="iconSet" priority="250">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3920,7 +3948,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C59">
     <cfRule type="iconSet" priority="249">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3930,7 +3958,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="248">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3940,7 +3968,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57:C58">
     <cfRule type="iconSet" priority="247">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3950,7 +3978,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58">
+  <conditionalFormatting sqref="C60">
     <cfRule type="iconSet" priority="246">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3960,7 +3988,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C61">
     <cfRule type="iconSet" priority="245">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3970,7 +3998,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="iconSet" priority="244">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3980,17 +4008,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="243">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="241">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
     <cfRule type="iconSet" priority="240">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4000,7 +4028,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="iconSet" priority="239">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4010,7 +4038,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="iconSet" priority="238">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4020,7 +4048,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="iconSet" priority="237">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4030,7 +4058,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C68">
     <cfRule type="iconSet" priority="236">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4040,7 +4068,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C69">
     <cfRule type="iconSet" priority="235">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4050,7 +4078,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="C70">
     <cfRule type="iconSet" priority="234">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4060,7 +4088,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
+  <conditionalFormatting sqref="C71">
     <cfRule type="iconSet" priority="233">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4070,18 +4098,2278 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="229">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="219">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="218">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="216">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="213">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C297">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C300">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4091,2276 +6379,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="227">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="226">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="224">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="223">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="221">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="219">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="216">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="215">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="iconSet" priority="214">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="212">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="211">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="22">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="18">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C297">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C300">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092A7A2-E198-455A-A7EA-45DDDAA15F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7BD65-5D1F-413D-806B-E7EECC7DE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
   <si>
     <t>STATUS</t>
   </si>
@@ -436,6 +436,24 @@
   </si>
   <si>
     <t xml:space="preserve">Testing - Face Recognition System </t>
+  </si>
+  <si>
+    <t>Normalized Point based cropping</t>
+  </si>
+  <si>
+    <t>Video Face Recognition - Code Study</t>
+  </si>
+  <si>
+    <t>Normalized Point based cropping - Execution &amp; Comparison</t>
+  </si>
+  <si>
+    <t>Manual Documentation</t>
+  </si>
+  <si>
+    <t>Video Editing - Automation Pipeline</t>
+  </si>
+  <si>
+    <t>Flowchart Editing</t>
   </si>
 </sst>
 </file>
@@ -924,6 +942,9 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,9 +958,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,8 +1409,8 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1444,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="41">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1442,7 +1460,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1473,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1486,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1481,7 +1499,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1512,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1523,7 +1541,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +1554,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1669,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1663,7 +1681,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1675,7 +1693,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1687,7 +1705,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1996,7 +2014,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2008,7 +2026,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2020,7 +2038,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2032,7 +2050,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
+      <c r="A51" s="41">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2046,7 +2064,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2058,7 +2076,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2070,7 +2088,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2082,7 +2100,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2108,7 +2126,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2120,7 +2138,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2146,7 +2164,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2158,7 +2176,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2170,7 +2188,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2182,7 +2200,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2194,7 +2212,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2220,7 +2238,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2232,7 +2250,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2244,7 +2262,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2256,7 +2274,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2268,7 +2286,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2280,7 +2298,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2306,7 +2324,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="19" t="s">
         <v>111</v>
       </c>
@@ -2318,7 +2336,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="12" t="s">
         <v>113</v>
       </c>
@@ -2344,7 +2362,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="12" t="s">
         <v>114</v>
       </c>
@@ -2356,40 +2374,76 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="37">
+        <v>45890</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="18"/>
+      <c r="A79" s="37">
+        <v>45894</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="18">
+        <v>45894</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="14">
+        <v>45894</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="18"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="18">
+        <v>45894</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="14">
+        <v>45894</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36"/>
@@ -3700,7 +3754,9 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A4:A9"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7BD65-5D1F-413D-806B-E7EECC7DE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134105BF-B408-48E1-84EA-695FB900B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>STATUS</t>
   </si>
@@ -454,6 +454,30 @@
   </si>
   <si>
     <t>Flowchart Editing</t>
+  </si>
+  <si>
+    <t>Automate DB - in case of reclustering</t>
+  </si>
+  <si>
+    <t>CLI options: --recluster, --dry-run.</t>
+  </si>
+  <si>
+    <t>Portrait Generation</t>
+  </si>
+  <si>
+    <t>Update Portrait Id in Database</t>
+  </si>
+  <si>
+    <t>Troubleshooting - Face Recognition System</t>
+  </si>
+  <si>
+    <t>Manual Improvement</t>
+  </si>
+  <si>
+    <t>Github Repo Improvement</t>
+  </si>
+  <si>
+    <t>Initial Study - How to Dockerize?</t>
   </si>
 </sst>
 </file>
@@ -942,22 +966,22 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,8 +1433,8 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1468,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="42">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1460,7 +1484,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1497,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1510,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1523,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +1536,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1541,7 +1565,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1578,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1669,7 +1693,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1681,7 +1705,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1693,7 +1717,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1705,7 +1729,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -2014,7 +2038,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2026,7 +2050,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2038,7 +2062,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2050,7 +2074,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
+      <c r="A51" s="42">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2064,7 +2088,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2076,7 +2100,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2088,7 +2112,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2100,7 +2124,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2126,7 +2150,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2138,7 +2162,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2164,7 +2188,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2176,7 +2200,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2188,7 +2212,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2200,7 +2224,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2212,7 +2236,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2238,7 +2262,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2250,7 +2274,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2262,7 +2286,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2274,7 +2298,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2286,7 +2310,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2298,7 +2322,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2324,7 +2348,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="19" t="s">
         <v>111</v>
       </c>
@@ -2362,7 +2386,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="12" t="s">
         <v>114</v>
       </c>
@@ -2410,7 +2434,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="12" t="s">
         <v>118</v>
       </c>
@@ -2422,7 +2446,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="19" t="s">
         <v>119</v>
       </c>
@@ -2434,7 +2458,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="12" t="s">
         <v>120</v>
       </c>
@@ -2446,64 +2470,130 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="18"/>
+      <c r="A83" s="37">
+        <v>45895</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="18">
+        <v>45895</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="14">
+        <v>45895</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="18"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="18">
+        <v>45895</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="14">
+        <v>45895</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="18"/>
+      <c r="A87" s="37">
+        <v>45896</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="18">
+        <v>45902</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="14">
+        <v>45902</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="18"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="18">
+        <v>45902</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
+      <c r="A90" s="37">
+        <v>45897</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="14">
+        <v>45902</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="18"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="18">
+        <v>45902</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="14">
+        <v>45902</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="36"/>
@@ -3754,27 +3844,50 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A72:A74"/>
+  <mergeCells count="20">
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A90:A92"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A72:A74"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="276">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="275">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="274">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3784,7 +3897,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="273">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3794,7 +3907,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="272">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3804,7 +3917,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="271">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3814,17 +3927,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="iconSet" priority="270">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
+  <conditionalFormatting sqref="C8">
     <cfRule type="iconSet" priority="269">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3834,7 +3937,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="281">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="267">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3844,17 +3967,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="279">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="266">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3864,7 +3977,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="263">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
     <cfRule type="iconSet" priority="265">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3874,67 +4057,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="259">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="257">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3944,37 +4067,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="255">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C41">
+    <cfRule type="iconSet" priority="254">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53">
+    <cfRule type="iconSet" priority="253">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
     <cfRule type="iconSet" priority="252">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3984,7 +4097,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
+  <conditionalFormatting sqref="C59">
     <cfRule type="iconSet" priority="251">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3994,7 +4107,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="250">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4004,7 +4117,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C57:C58">
     <cfRule type="iconSet" priority="249">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4014,7 +4127,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C60">
     <cfRule type="iconSet" priority="248">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4024,7 +4137,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58">
+  <conditionalFormatting sqref="C61">
     <cfRule type="iconSet" priority="247">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4034,7 +4147,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C62">
     <cfRule type="iconSet" priority="246">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4044,27 +4157,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="245">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="244">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="242">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
     <cfRule type="iconSet" priority="241">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4074,7 +4187,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C66">
     <cfRule type="iconSet" priority="240">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4084,7 +4197,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C67">
     <cfRule type="iconSet" priority="239">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4094,7 +4207,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C68">
     <cfRule type="iconSet" priority="238">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4104,7 +4217,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C69">
     <cfRule type="iconSet" priority="237">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4114,7 +4227,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C70">
     <cfRule type="iconSet" priority="236">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4124,7 +4237,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="C71">
     <cfRule type="iconSet" priority="235">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4134,27 +4247,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="234">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="233">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
     <cfRule type="iconSet" priority="230">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4164,7 +4267,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
     <cfRule type="iconSet" priority="228">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4174,7 +4287,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
+  <conditionalFormatting sqref="C79">
     <cfRule type="iconSet" priority="227">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4184,7 +4297,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
+  <conditionalFormatting sqref="C80">
     <cfRule type="iconSet" priority="226">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4194,7 +4307,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C81">
     <cfRule type="iconSet" priority="225">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4204,7 +4317,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
+  <conditionalFormatting sqref="C82">
     <cfRule type="iconSet" priority="224">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4214,7 +4327,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
+  <conditionalFormatting sqref="C83">
     <cfRule type="iconSet" priority="223">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4224,7 +4337,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
+  <conditionalFormatting sqref="C84">
     <cfRule type="iconSet" priority="222">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4234,7 +4347,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
+  <conditionalFormatting sqref="C85">
     <cfRule type="iconSet" priority="221">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4244,7 +4357,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
+  <conditionalFormatting sqref="C86">
     <cfRule type="iconSet" priority="220">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4254,7 +4367,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
+  <conditionalFormatting sqref="C87">
     <cfRule type="iconSet" priority="219">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4264,7 +4377,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
+  <conditionalFormatting sqref="C88">
     <cfRule type="iconSet" priority="218">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4274,7 +4387,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
+  <conditionalFormatting sqref="C89">
     <cfRule type="iconSet" priority="217">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4284,18 +4397,2118 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="216">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="iconSet" priority="215">
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="iconSet" priority="213">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C297">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C300">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4305,7 +6518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="iconSet" priority="214">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4315,2126 +6528,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="212">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="iconSet" priority="211">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="22">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="18">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C297">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C300">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134105BF-B408-48E1-84EA-695FB900B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EF9F9A-A104-415F-B6BA-CA0315AEE786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="130">
   <si>
     <t>STATUS</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Initial Study - How to Dockerize?</t>
+  </si>
+  <si>
+    <t>Dockerization</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -963,6 +966,24 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,21 +997,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1434,7 +1440,7 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1474,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1484,7 +1490,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1503,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +1529,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +1542,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1549,7 +1555,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="43">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1565,7 +1571,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1584,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1591,7 +1597,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="38">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1605,7 +1611,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1623,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1629,7 +1635,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1641,7 +1647,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1653,7 +1659,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1679,7 +1685,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="43">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1693,7 +1699,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1705,7 +1711,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1717,7 +1723,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1729,7 +1735,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1741,7 +1747,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+      <c r="A25" s="38">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1755,7 +1761,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1767,7 +1773,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
@@ -1779,7 +1785,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1791,7 +1797,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
@@ -1803,7 +1809,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1817,7 +1823,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="38">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1832,7 +1838,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1845,7 +1851,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1858,7 +1864,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1871,7 +1877,7 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -1884,7 +1890,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
@@ -1898,7 +1904,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
@@ -1911,7 +1917,7 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1924,7 +1930,7 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44">
+      <c r="A39" s="38">
         <v>45877</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1938,7 +1944,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1950,7 +1956,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
@@ -1962,7 +1968,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="12" t="s">
         <v>86</v>
       </c>
@@ -1974,7 +1980,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -1986,7 +1992,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44">
+      <c r="A44" s="38">
         <v>45880</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -2000,7 +2006,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="8" t="s">
         <v>90</v>
       </c>
@@ -2012,7 +2018,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
@@ -2024,7 +2030,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37">
+      <c r="A47" s="43">
         <v>45881</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -2038,7 +2044,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2050,7 +2056,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2062,7 +2068,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2074,7 +2080,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42">
+      <c r="A51" s="41">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2088,7 +2094,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2100,7 +2106,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2112,7 +2118,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2124,7 +2130,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2136,7 +2142,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37">
+      <c r="A56" s="43">
         <v>45884</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -2150,7 +2156,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2162,7 +2168,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2174,7 +2180,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37">
+      <c r="A59" s="43">
         <v>45887</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -2188,7 +2194,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2200,7 +2206,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2212,7 +2218,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2224,7 +2230,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2236,7 +2242,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2248,7 +2254,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37">
+      <c r="A65" s="43">
         <v>45888</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -2262,7 +2268,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2274,7 +2280,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2286,7 +2292,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2298,7 +2304,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2310,7 +2316,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2322,7 +2328,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2334,7 +2340,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37">
+      <c r="A72" s="43">
         <v>45889</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -2348,7 +2354,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="19" t="s">
         <v>111</v>
       </c>
@@ -2360,7 +2366,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="12" t="s">
         <v>113</v>
       </c>
@@ -2372,7 +2378,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37">
+      <c r="A75" s="43">
         <v>45890</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -2386,7 +2392,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="12" t="s">
         <v>114</v>
       </c>
@@ -2398,7 +2404,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37">
+      <c r="A77" s="43">
         <v>45890</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -2410,7 +2416,7 @@
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="12" t="s">
         <v>115</v>
       </c>
@@ -2420,7 +2426,7 @@
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="37">
+      <c r="A79" s="43">
         <v>45894</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -2434,7 +2440,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="12" t="s">
         <v>118</v>
       </c>
@@ -2446,7 +2452,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="19" t="s">
         <v>119</v>
       </c>
@@ -2458,7 +2464,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="12" t="s">
         <v>120</v>
       </c>
@@ -2470,7 +2476,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="37">
+      <c r="A83" s="43">
         <v>45895</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -2484,7 +2490,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="12" t="s">
         <v>122</v>
       </c>
@@ -2496,7 +2502,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="19" t="s">
         <v>123</v>
       </c>
@@ -2508,7 +2514,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="12" t="s">
         <v>124</v>
       </c>
@@ -2520,7 +2526,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="37">
+      <c r="A87" s="43">
         <v>45896</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -2534,7 +2540,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="12" t="s">
         <v>126</v>
       </c>
@@ -2546,7 +2552,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="19" t="s">
         <v>127</v>
       </c>
@@ -2558,7 +2564,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="37">
+      <c r="A90" s="43">
         <v>45897</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -2572,7 +2578,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
+      <c r="A91" s="44"/>
       <c r="B91" s="19" t="s">
         <v>127</v>
       </c>
@@ -2584,7 +2590,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="12" t="s">
         <v>128</v>
       </c>
@@ -2596,10 +2602,18 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="18"/>
+      <c r="A93" s="37">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="18">
+        <v>45902</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36"/>
@@ -3845,16 +3859,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A30"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A89"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EF9F9A-A104-415F-B6BA-CA0315AEE786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C028CFF-47E6-43E8-9E99-4971D8EC91F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>STATUS</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Dockerization</t>
+  </si>
+  <si>
+    <t>Server Connectivity</t>
   </si>
 </sst>
 </file>
@@ -969,15 +972,6 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,6 +985,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,14 +1442,14 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="93.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="101.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="10.875" style="2"/>
@@ -1474,7 +1477,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="38">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1490,7 +1493,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1503,7 +1506,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1519,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1529,7 +1532,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1545,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1558,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="40">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1571,7 +1574,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1587,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1597,7 +1600,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="43">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1611,7 +1614,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1626,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1638,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1647,7 +1650,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1659,7 +1662,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1685,7 +1688,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="40">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1699,7 +1702,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1711,7 +1714,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1723,7 +1726,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1735,7 +1738,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="43">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1761,7 +1764,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1773,7 +1776,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
@@ -1785,7 +1788,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1797,7 +1800,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
@@ -1809,7 +1812,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="A31" s="43">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1838,7 +1841,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1851,7 +1854,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1864,7 +1867,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1877,7 +1880,7 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -1890,7 +1893,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
@@ -1904,7 +1907,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
@@ -1917,7 +1920,7 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1930,7 +1933,7 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="43">
         <v>45877</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1944,7 +1947,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1956,7 +1959,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
@@ -1968,7 +1971,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="12" t="s">
         <v>86</v>
       </c>
@@ -1980,7 +1983,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -1992,7 +1995,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+      <c r="A44" s="43">
         <v>45880</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -2006,7 +2009,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="8" t="s">
         <v>90</v>
       </c>
@@ -2018,7 +2021,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
@@ -2030,7 +2033,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
+      <c r="A47" s="40">
         <v>45881</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -2044,7 +2047,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2056,7 +2059,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2068,7 +2071,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2080,7 +2083,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
+      <c r="A51" s="38">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2094,7 +2097,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2106,7 +2109,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2118,7 +2121,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2130,7 +2133,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2142,7 +2145,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
+      <c r="A56" s="40">
         <v>45884</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -2156,7 +2159,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2168,7 +2171,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2180,7 +2183,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="A59" s="40">
         <v>45887</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -2194,7 +2197,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2206,7 +2209,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2218,7 +2221,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2230,7 +2233,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2242,7 +2245,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2254,7 +2257,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43">
+      <c r="A65" s="40">
         <v>45888</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -2268,7 +2271,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2280,7 +2283,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2292,7 +2295,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2304,7 +2307,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2316,7 +2319,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2328,7 +2331,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2340,7 +2343,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
+      <c r="A72" s="40">
         <v>45889</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -2378,7 +2381,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
+      <c r="A75" s="40">
         <v>45890</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -2392,7 +2395,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="42"/>
       <c r="B76" s="12" t="s">
         <v>114</v>
       </c>
@@ -2404,7 +2407,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
+      <c r="A77" s="40">
         <v>45890</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -2426,7 +2429,7 @@
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
+      <c r="A79" s="40">
         <v>45894</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -2440,7 +2443,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="12" t="s">
         <v>118</v>
       </c>
@@ -2452,7 +2455,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="19" t="s">
         <v>119</v>
       </c>
@@ -2464,7 +2467,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
+      <c r="A82" s="42"/>
       <c r="B82" s="12" t="s">
         <v>120</v>
       </c>
@@ -2476,7 +2479,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
+      <c r="A83" s="40">
         <v>45895</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -2490,7 +2493,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="12" t="s">
         <v>122</v>
       </c>
@@ -2502,7 +2505,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="19" t="s">
         <v>123</v>
       </c>
@@ -2514,7 +2517,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
+      <c r="A86" s="42"/>
       <c r="B86" s="12" t="s">
         <v>124</v>
       </c>
@@ -2526,7 +2529,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="43">
+      <c r="A87" s="40">
         <v>45896</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -2540,7 +2543,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="12" t="s">
         <v>126</v>
       </c>
@@ -2552,7 +2555,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="19" t="s">
         <v>127</v>
       </c>
@@ -2564,7 +2567,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43">
+      <c r="A90" s="40">
         <v>45897</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -2578,7 +2581,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="19" t="s">
         <v>127</v>
       </c>
@@ -2590,7 +2593,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="12" t="s">
         <v>128</v>
       </c>
@@ -2616,16 +2619,30 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
+      <c r="A94" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="14">
+        <v>45902</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="18"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="18">
+        <v>45902</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36"/>
@@ -3858,12 +3875,8 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A30"/>
+  <mergeCells count="21">
+    <mergeCell ref="A94:A95"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A39:A43"/>
@@ -3879,6 +3892,11 @@
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -4421,18 +4439,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
+  <conditionalFormatting sqref="C93:C94">
     <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="iconSet" priority="212">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C028CFF-47E6-43E8-9E99-4971D8EC91F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B038B5CB-469B-48EF-8C31-112C997132A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>STATUS</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Server Connectivity</t>
+  </si>
+  <si>
+    <t>Documentation in README.md files for folders in github</t>
   </si>
 </sst>
 </file>
@@ -972,19 +975,19 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,7 +1446,7 @@
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A95"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1480,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="40">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1493,7 +1496,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1509,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1519,7 +1522,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1535,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1548,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +1561,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="38">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1574,7 +1577,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1590,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="38">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1702,7 +1705,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1714,7 +1717,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1726,7 +1729,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1738,7 +1741,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -2033,7 +2036,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
+      <c r="A47" s="38">
         <v>45881</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -2047,7 +2050,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2059,7 +2062,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2071,7 +2074,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2083,7 +2086,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
+      <c r="A51" s="40">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2097,7 +2100,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2109,7 +2112,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2121,7 +2124,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2133,7 +2136,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2145,7 +2148,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
+      <c r="A56" s="38">
         <v>45884</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -2159,7 +2162,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2171,7 +2174,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2183,7 +2186,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
+      <c r="A59" s="38">
         <v>45887</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2209,7 +2212,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2221,7 +2224,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2233,7 +2236,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2245,7 +2248,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2257,7 +2260,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
+      <c r="A65" s="38">
         <v>45888</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -2271,7 +2274,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2283,7 +2286,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2295,7 +2298,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2307,7 +2310,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2319,7 +2322,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2331,7 +2334,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2343,7 +2346,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
+      <c r="A72" s="38">
         <v>45889</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -2381,7 +2384,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
+      <c r="A75" s="38">
         <v>45890</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -2395,7 +2398,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="12" t="s">
         <v>114</v>
       </c>
@@ -2407,7 +2410,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
+      <c r="A77" s="38">
         <v>45890</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -2429,7 +2432,7 @@
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
+      <c r="A79" s="38">
         <v>45894</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -2443,7 +2446,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="12" t="s">
         <v>118</v>
       </c>
@@ -2455,7 +2458,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="42"/>
       <c r="B81" s="19" t="s">
         <v>119</v>
       </c>
@@ -2467,7 +2470,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="12" t="s">
         <v>120</v>
       </c>
@@ -2479,7 +2482,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
+      <c r="A83" s="38">
         <v>45895</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -2493,7 +2496,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="12" t="s">
         <v>122</v>
       </c>
@@ -2505,7 +2508,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
+      <c r="A85" s="42"/>
       <c r="B85" s="19" t="s">
         <v>123</v>
       </c>
@@ -2517,7 +2520,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="12" t="s">
         <v>124</v>
       </c>
@@ -2529,7 +2532,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
+      <c r="A87" s="38">
         <v>45896</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -2543,7 +2546,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="12" t="s">
         <v>126</v>
       </c>
@@ -2555,7 +2558,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="19" t="s">
         <v>127</v>
       </c>
@@ -2567,7 +2570,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
+      <c r="A90" s="38">
         <v>45897</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -2581,7 +2584,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
+      <c r="A91" s="42"/>
       <c r="B91" s="19" t="s">
         <v>127</v>
       </c>
@@ -2593,7 +2596,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="12" t="s">
         <v>128</v>
       </c>
@@ -2619,7 +2622,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
+      <c r="A94" s="38">
         <v>45901</v>
       </c>
       <c r="B94" s="12" t="s">
@@ -2633,7 +2636,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="19" t="s">
         <v>130</v>
       </c>
@@ -2645,22 +2648,42 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
+      <c r="A96" s="38">
+        <v>45902</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="14">
+        <v>45902</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="18"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="18">
+        <v>45902</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="14">
+        <v>45902</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
@@ -3875,7 +3898,19 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A25:A30"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
@@ -3886,20 +3921,29 @@
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
+    <cfRule type="iconSet" priority="278">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="iconSet" priority="277">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="276">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3909,7 +3953,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="275">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3919,7 +3963,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="274">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3929,7 +3973,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C28:C29">
     <cfRule type="iconSet" priority="273">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3939,17 +3983,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
+  <conditionalFormatting sqref="C8">
     <cfRule type="iconSet" priority="271">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3959,7 +3993,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C10:C24">
+    <cfRule type="iconSet" priority="283">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="269">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3969,17 +4023,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="281">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="268">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3989,7 +4033,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="263">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C40 C42:C50">
     <cfRule type="iconSet" priority="267">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3999,67 +4113,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="266">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="259">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4069,37 +4123,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="265">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C41">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C53">
+    <cfRule type="iconSet" priority="255">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
     <cfRule type="iconSet" priority="254">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4109,7 +4153,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
+  <conditionalFormatting sqref="C59">
     <cfRule type="iconSet" priority="253">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4119,7 +4163,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="252">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4129,7 +4173,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C57:C58">
     <cfRule type="iconSet" priority="251">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4139,7 +4183,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C60">
     <cfRule type="iconSet" priority="250">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4149,7 +4193,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58">
+  <conditionalFormatting sqref="C61">
     <cfRule type="iconSet" priority="249">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4159,7 +4203,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C62">
     <cfRule type="iconSet" priority="248">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4169,27 +4213,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="247">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="246">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="245">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="244">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
     <cfRule type="iconSet" priority="243">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4199,7 +4243,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C66">
     <cfRule type="iconSet" priority="242">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4209,7 +4253,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C67">
     <cfRule type="iconSet" priority="241">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4219,7 +4263,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C68">
     <cfRule type="iconSet" priority="240">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4229,7 +4273,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C69">
     <cfRule type="iconSet" priority="239">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4239,7 +4283,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C70">
     <cfRule type="iconSet" priority="238">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4249,7 +4293,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
+  <conditionalFormatting sqref="C71">
     <cfRule type="iconSet" priority="237">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4259,27 +4303,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
     <cfRule type="iconSet" priority="232">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4289,7 +4323,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
     <cfRule type="iconSet" priority="230">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4299,7 +4343,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
+  <conditionalFormatting sqref="C79">
     <cfRule type="iconSet" priority="229">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4309,7 +4353,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
+  <conditionalFormatting sqref="C80">
     <cfRule type="iconSet" priority="228">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4319,7 +4363,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
+  <conditionalFormatting sqref="C81">
     <cfRule type="iconSet" priority="227">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4329,7 +4373,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
+  <conditionalFormatting sqref="C82">
     <cfRule type="iconSet" priority="226">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4339,7 +4383,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
+  <conditionalFormatting sqref="C83">
     <cfRule type="iconSet" priority="225">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4349,7 +4393,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
+  <conditionalFormatting sqref="C84">
     <cfRule type="iconSet" priority="224">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4359,7 +4403,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
+  <conditionalFormatting sqref="C85">
     <cfRule type="iconSet" priority="223">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4369,7 +4413,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
+  <conditionalFormatting sqref="C86">
     <cfRule type="iconSet" priority="222">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4379,7 +4423,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
+  <conditionalFormatting sqref="C87">
     <cfRule type="iconSet" priority="221">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4389,7 +4433,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
+  <conditionalFormatting sqref="C88">
     <cfRule type="iconSet" priority="220">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4399,7 +4443,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
+  <conditionalFormatting sqref="C89">
     <cfRule type="iconSet" priority="219">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4409,28 +4453,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="214">
+    <cfRule type="iconSet" priority="216">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4440,6 +4464,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
     <cfRule type="iconSet" priority="213">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4449,8 +4483,2068 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="211">
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C297">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C300">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4460,2086 +6554,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="22">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="18">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C297">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C300">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6549,7 +6563,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
+  <conditionalFormatting sqref="C97:C98">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B038B5CB-469B-48EF-8C31-112C997132A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E827B1-7830-4907-B45F-B68769675041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailytasklist" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
   <si>
     <t>STATUS</t>
   </si>
@@ -487,6 +487,48 @@
   </si>
   <si>
     <t>Documentation in README.md files for folders in github</t>
+  </si>
+  <si>
+    <t>Troubleshooting : Dockerization</t>
+  </si>
+  <si>
+    <t>Manual Updates : Dockerization</t>
+  </si>
+  <si>
+    <t>Copy the created thumbnail folder from container to local machine and local machine to container : Synchronous</t>
+  </si>
+  <si>
+    <t>Github Repo Improvement &amp; Updates</t>
+  </si>
+  <si>
+    <t>Troubleshooting : Dockerization - File path ammendments</t>
+  </si>
+  <si>
+    <t>Cache the downloads</t>
+  </si>
+  <si>
+    <t>Download .tar of sql server image and load</t>
+  </si>
+  <si>
+    <t>Situational Logic Implementation : Thumbnail in db but not in folder</t>
+  </si>
+  <si>
+    <t>Conditional Logic Implementation : Image or Video</t>
+  </si>
+  <si>
+    <t>Github Repo Improvements &amp; Updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing &amp; Debugging - Dockerized Face Recognition System </t>
+  </si>
+  <si>
+    <t>Dockarized Container : py files hidden</t>
+  </si>
+  <si>
+    <t>Video Making</t>
+  </si>
+  <si>
+    <t>Video Editing</t>
   </si>
 </sst>
 </file>
@@ -870,7 +912,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -978,16 +1020,25 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,12 +1048,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,8 +1490,8 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1480,7 +1525,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="44">
         <v>45867</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1496,7 +1541,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1554,7 @@
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1567,7 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1580,7 @@
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1593,7 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +1606,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="39">
         <v>45868</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1577,7 +1622,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1590,7 +1635,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1603,7 +1648,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="46">
         <v>45869</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1617,7 +1662,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1674,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1641,7 +1686,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -1653,7 +1698,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1665,7 +1710,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
@@ -1691,7 +1736,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="39">
         <v>45874</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1705,7 +1750,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1717,7 +1762,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1729,7 +1774,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1741,7 +1786,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1753,7 +1798,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="46">
         <v>45875</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1767,7 +1812,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
@@ -1779,7 +1824,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="21" t="s">
         <v>71</v>
       </c>
@@ -1791,7 +1836,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -1803,7 +1848,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="21" t="s">
         <v>75</v>
       </c>
@@ -1815,7 +1860,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -1829,7 +1874,7 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="46">
         <v>45876</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -1844,7 +1889,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -1857,7 +1902,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
@@ -1870,7 +1915,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="12" t="s">
         <v>88</v>
       </c>
@@ -1883,7 +1928,7 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="19" t="s">
         <v>80</v>
       </c>
@@ -1896,7 +1941,7 @@
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
@@ -1910,7 +1955,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
@@ -1923,7 +1968,7 @@
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
@@ -1936,7 +1981,7 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+      <c r="A39" s="46">
         <v>45877</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1950,7 +1995,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1962,7 +2007,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="22" t="s">
         <v>83</v>
       </c>
@@ -1974,7 +2019,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="12" t="s">
         <v>86</v>
       </c>
@@ -1986,7 +2031,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -1998,7 +2043,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
+      <c r="A44" s="46">
         <v>45880</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -2012,7 +2057,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="8" t="s">
         <v>90</v>
       </c>
@@ -2024,7 +2069,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
@@ -2036,7 +2081,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38">
+      <c r="A47" s="39">
         <v>45881</v>
       </c>
       <c r="B47" s="21" t="s">
@@ -2050,7 +2095,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2062,7 +2107,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2074,7 +2119,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2086,7 +2131,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
+      <c r="A51" s="44">
         <v>45882</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -2100,7 +2145,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="34" t="s">
         <v>94</v>
       </c>
@@ -2112,7 +2157,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="21" t="s">
         <v>93</v>
       </c>
@@ -2124,7 +2169,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="12" t="s">
         <v>96</v>
       </c>
@@ -2136,7 +2181,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="21" t="s">
         <v>97</v>
       </c>
@@ -2148,7 +2193,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38">
+      <c r="A56" s="39">
         <v>45884</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -2162,7 +2207,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2174,7 +2219,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2186,7 +2231,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38">
+      <c r="A59" s="39">
         <v>45887</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -2200,7 +2245,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2212,7 +2257,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2224,7 +2269,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2236,7 +2281,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2248,7 +2293,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2260,7 +2305,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38">
+      <c r="A65" s="39">
         <v>45888</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -2274,7 +2319,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2286,7 +2331,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2298,7 +2343,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2310,7 +2355,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2322,7 +2367,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2334,7 +2379,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2346,7 +2391,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38">
+      <c r="A72" s="39">
         <v>45889</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -2360,7 +2405,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="19" t="s">
         <v>111</v>
       </c>
@@ -2372,7 +2417,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="12" t="s">
         <v>113</v>
       </c>
@@ -2384,7 +2429,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38">
+      <c r="A75" s="39">
         <v>45890</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -2398,7 +2443,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="12" t="s">
         <v>114</v>
       </c>
@@ -2410,7 +2455,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="38">
+      <c r="A77" s="39">
         <v>45890</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -2422,7 +2467,7 @@
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="12" t="s">
         <v>115</v>
       </c>
@@ -2432,7 +2477,7 @@
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="38">
+      <c r="A79" s="39">
         <v>45894</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -2446,7 +2491,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="12" t="s">
         <v>118</v>
       </c>
@@ -2458,7 +2503,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="19" t="s">
         <v>119</v>
       </c>
@@ -2470,7 +2515,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="12" t="s">
         <v>120</v>
       </c>
@@ -2482,7 +2527,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38">
+      <c r="A83" s="39">
         <v>45895</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -2496,7 +2541,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="40"/>
       <c r="B84" s="12" t="s">
         <v>122</v>
       </c>
@@ -2508,7 +2553,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="19" t="s">
         <v>123</v>
       </c>
@@ -2520,7 +2565,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="12" t="s">
         <v>124</v>
       </c>
@@ -2532,7 +2577,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="38">
+      <c r="A87" s="39">
         <v>45896</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -2546,7 +2591,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="40"/>
       <c r="B88" s="12" t="s">
         <v>126</v>
       </c>
@@ -2558,7 +2603,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="19" t="s">
         <v>127</v>
       </c>
@@ -2570,7 +2615,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="38">
+      <c r="A90" s="39">
         <v>45897</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -2584,7 +2629,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="40"/>
       <c r="B91" s="19" t="s">
         <v>127</v>
       </c>
@@ -2596,7 +2641,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="12" t="s">
         <v>128</v>
       </c>
@@ -2622,7 +2667,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38">
+      <c r="A94" s="39">
         <v>45901</v>
       </c>
       <c r="B94" s="12" t="s">
@@ -2636,7 +2681,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="19" t="s">
         <v>130</v>
       </c>
@@ -2648,7 +2693,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38">
+      <c r="A96" s="39">
         <v>45902</v>
       </c>
       <c r="B96" s="12" t="s">
@@ -2662,7 +2707,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="19" t="s">
         <v>130</v>
       </c>
@@ -2674,7 +2719,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="12" t="s">
         <v>131</v>
       </c>
@@ -2686,100 +2731,204 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="18"/>
+      <c r="A99" s="38">
+        <v>45903</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="18">
+        <v>45905</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
+      <c r="A100" s="39">
+        <v>45904</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="14">
+        <v>45905</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="18"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="18">
+        <v>45905</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="14">
+        <v>45905</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="18"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="18">
+        <v>45905</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
+      <c r="A104" s="39">
+        <v>45905</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="14">
+        <v>45905</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="18"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="18">
+        <v>45905</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="14">
+        <v>45905</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="18"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="18">
+        <v>45905</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="14">
+        <v>45905</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="18"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="18">
+        <v>45905</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="14">
+        <v>45905</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="18"/>
+      <c r="A111" s="39">
+        <v>45908</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="18"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36"/>
@@ -3898,20 +4047,10 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A94:A95"/>
+  <mergeCells count="25">
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A110"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A39:A43"/>
@@ -3921,6 +4060,19 @@
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A94:A95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E827B1-7830-4907-B45F-B68769675041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C93128-6758-4DB7-A0A1-4BE1ECA9F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="156">
   <si>
     <t>STATUS</t>
   </si>
@@ -529,6 +529,36 @@
   </si>
   <si>
     <t>Video Editing</t>
+  </si>
+  <si>
+    <t>Dockarized Container : py files hidden --&gt; PYC files</t>
+  </si>
+  <si>
+    <t>Situational Logic Implementation : dbo.MediaItems show image is processed but not stored in dbo.Faces</t>
+  </si>
+  <si>
+    <t>Dockarized Container : py files hidden --&gt; multiple PYC files</t>
+  </si>
+  <si>
+    <t>Dockarized Container : py files hidden --&gt; single PYC files</t>
+  </si>
+  <si>
+    <t>.exe of Face Recognition System</t>
+  </si>
+  <si>
+    <t>Logo for .exe</t>
+  </si>
+  <si>
+    <t>Packages management in .exe</t>
+  </si>
+  <si>
+    <t>Logo Finalization</t>
+  </si>
+  <si>
+    <t>.env setup for .exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set --recluster flag for everyrun </t>
   </si>
 </sst>
 </file>
@@ -1023,16 +1053,16 @@
     <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,8 +1520,8 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1622,7 +1652,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1665,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1750,7 +1780,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -1762,7 +1792,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1774,7 +1804,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>72</v>
       </c>
@@ -1786,7 +1816,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="12" t="s">
         <v>73</v>
       </c>
@@ -2095,7 +2125,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="12" t="s">
         <v>92</v>
       </c>
@@ -2107,7 +2137,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="33" t="s">
         <v>94</v>
       </c>
@@ -2119,7 +2149,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="12" t="s">
         <v>93</v>
       </c>
@@ -2207,7 +2237,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="35" t="s">
         <v>99</v>
       </c>
@@ -2219,7 +2249,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
@@ -2245,7 +2275,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="12" t="s">
         <v>101</v>
       </c>
@@ -2257,7 +2287,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="19" t="s">
         <v>102</v>
       </c>
@@ -2269,7 +2299,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="12" t="s">
         <v>103</v>
       </c>
@@ -2281,7 +2311,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="19" t="s">
         <v>104</v>
       </c>
@@ -2293,7 +2323,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
@@ -2319,7 +2349,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="12" t="s">
         <v>105</v>
       </c>
@@ -2331,7 +2361,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="19" t="s">
         <v>107</v>
       </c>
@@ -2343,7 +2373,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="12" t="s">
         <v>108</v>
       </c>
@@ -2355,7 +2385,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
@@ -2367,7 +2397,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="12" t="s">
         <v>110</v>
       </c>
@@ -2379,7 +2409,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="19" t="s">
         <v>111</v>
       </c>
@@ -2405,7 +2435,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="19" t="s">
         <v>111</v>
       </c>
@@ -2417,7 +2447,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="12" t="s">
         <v>113</v>
       </c>
@@ -2443,7 +2473,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="12" t="s">
         <v>114</v>
       </c>
@@ -2467,7 +2497,7 @@
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="12" t="s">
         <v>115</v>
       </c>
@@ -2491,7 +2521,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="12" t="s">
         <v>118</v>
       </c>
@@ -2503,7 +2533,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="42"/>
       <c r="B81" s="19" t="s">
         <v>119</v>
       </c>
@@ -2515,7 +2545,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="12" t="s">
         <v>120</v>
       </c>
@@ -2541,7 +2571,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="12" t="s">
         <v>122</v>
       </c>
@@ -2553,7 +2583,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="42"/>
       <c r="B85" s="19" t="s">
         <v>123</v>
       </c>
@@ -2565,7 +2595,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="12" t="s">
         <v>124</v>
       </c>
@@ -2591,7 +2621,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="12" t="s">
         <v>126</v>
       </c>
@@ -2603,7 +2633,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="19" t="s">
         <v>127</v>
       </c>
@@ -2629,7 +2659,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="42"/>
       <c r="B91" s="19" t="s">
         <v>127</v>
       </c>
@@ -2641,7 +2671,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="12" t="s">
         <v>128</v>
       </c>
@@ -2681,7 +2711,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="19" t="s">
         <v>130</v>
       </c>
@@ -2707,7 +2737,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="42"/>
       <c r="B97" s="19" t="s">
         <v>130</v>
       </c>
@@ -2719,7 +2749,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+      <c r="A98" s="43"/>
       <c r="B98" s="12" t="s">
         <v>131</v>
       </c>
@@ -2759,7 +2789,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="42"/>
       <c r="B101" s="19" t="s">
         <v>133</v>
       </c>
@@ -2771,7 +2801,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="42"/>
       <c r="B102" s="12" t="s">
         <v>134</v>
       </c>
@@ -2783,7 +2813,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="19" t="s">
         <v>135</v>
       </c>
@@ -2809,7 +2839,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
+      <c r="A105" s="40"/>
       <c r="B105" s="19" t="s">
         <v>135</v>
       </c>
@@ -2821,7 +2851,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
+      <c r="A106" s="40"/>
       <c r="B106" s="12" t="s">
         <v>137</v>
       </c>
@@ -2833,7 +2863,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
+      <c r="A107" s="40"/>
       <c r="B107" s="19" t="s">
         <v>138</v>
       </c>
@@ -2845,7 +2875,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
+      <c r="A108" s="40"/>
       <c r="B108" s="12" t="s">
         <v>139</v>
       </c>
@@ -2857,7 +2887,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
+      <c r="A109" s="40"/>
       <c r="B109" s="19" t="s">
         <v>140</v>
       </c>
@@ -2869,7 +2899,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
+      <c r="A110" s="41"/>
       <c r="B110" s="12" t="s">
         <v>141</v>
       </c>
@@ -2895,7 +2925,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="42"/>
       <c r="B112" s="12" t="s">
         <v>142</v>
       </c>
@@ -2907,7 +2937,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="42"/>
       <c r="B113" s="19" t="s">
         <v>143</v>
       </c>
@@ -2919,7 +2949,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
+      <c r="A114" s="43"/>
       <c r="B114" s="12" t="s">
         <v>145</v>
       </c>
@@ -2931,82 +2961,168 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="18"/>
+      <c r="A115" s="39">
+        <v>45909</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="117" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="18"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
+      <c r="A118" s="39">
+        <v>45910</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="18"/>
+      <c r="A119" s="40"/>
+      <c r="B119" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="18"/>
+      <c r="A121" s="39">
+        <v>45911</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
+      <c r="A122" s="40"/>
+      <c r="B122" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="18"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
+      <c r="A124" s="39">
+        <v>45912</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="18"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="14">
+        <v>45912</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="18"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="18">
+        <v>45912</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36"/>
@@ -4047,10 +4163,8 @@
       <c r="D300" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A110"/>
+  <mergeCells count="29">
+    <mergeCell ref="A124:A127"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A39:A43"/>
@@ -4060,19 +4174,25 @@
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A96:A98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -4795,7 +4915,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
+  <conditionalFormatting sqref="C115:C117">
     <cfRule type="iconSet" priority="193">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4805,38 +4925,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
+  <conditionalFormatting sqref="C118:C119">
     <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="189">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C93128-6758-4DB7-A0A1-4BE1ECA9F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36876FD-243E-41F2-85E7-C4A13E2797ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="165">
   <si>
     <t>STATUS</t>
   </si>
@@ -70,9 +70,6 @@
     <t>❌ On hold</t>
   </si>
   <si>
-    <t>DAILY Task List</t>
-  </si>
-  <si>
     <t>TASKS</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>Immich Workflow Flowchart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Clustering Model Study </t>
   </si>
   <si>
     <t>Technical Documentation – immich_face_recognition.md</t>
@@ -560,6 +554,39 @@
   <si>
     <t xml:space="preserve">Set --recluster flag for everyrun </t>
   </si>
+  <si>
+    <t>.exe of Face Recognition System - Updated</t>
+  </si>
+  <si>
+    <t>Video Making and Editing of .exe execution</t>
+  </si>
+  <si>
+    <t>Manual Improvements</t>
+  </si>
+  <si>
+    <t>GitHub Improvements</t>
+  </si>
+  <si>
+    <t>Files Check</t>
+  </si>
+  <si>
+    <t>Immich: Video upload check with face detection, recognition, and clustering.</t>
+  </si>
+  <si>
+    <t>Study Video Processing in Immich &amp; PhotoPrism</t>
+  </si>
+  <si>
+    <t>DAILY TASKS</t>
+  </si>
+  <si>
+    <t>Research Image Clustering Model</t>
+  </si>
+  <si>
+    <t>Study Video Processing in DeepStack, &amp; CompreFace</t>
+  </si>
+  <si>
+    <t>Study Video Processing in Double-Take</t>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +596,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,13 +713,6 @@
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <color theme="3" tint="0.14996795556505021"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Tahoma"/>
@@ -775,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -886,6 +906,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF203764"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF203764"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF203764"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF203764"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -942,7 +977,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -953,7 +988,6 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -982,13 +1016,12 @@
     <xf numFmtId="14" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1007,23 +1040,23 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,43 +1074,52 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,6 +1244,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF203764"/>
       <color rgb="FF505275"/>
       <color rgb="FF5CBCD6"/>
       <color rgb="FFF2F2F2"/>
@@ -1211,7 +1254,6 @@
       <color rgb="FFE18063"/>
       <color rgb="FFF7CFEC"/>
       <color rgb="FFD5C2E1"/>
-      <color rgb="FFD98069"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1520,8 +1562,8 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1533,235 +1575,235 @@
     <col min="5" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>45867</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
-        <v>45867</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45870</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16">
         <v>45870</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="21" t="s">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>45870</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D7" s="16">
         <v>45870</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="12" t="s">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13">
+        <v>45870</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16">
         <v>45870</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="18">
-        <v>45870</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>45870</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="18">
-        <v>45870</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>45868</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13">
+        <v>45870</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="21">
+        <v>45870</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>45870</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>45869</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D18" s="13">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
         <v>45870</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="23">
-        <v>45870</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14">
-        <v>45870</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
-        <v>45869</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="10">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18">
-        <v>45870</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="14">
-        <v>45875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="8" t="s">
+      <c r="B19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="10">
-        <v>45875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="14">
-        <v>45875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>45870</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
         <v>45870</v>
       </c>
     </row>
@@ -1769,344 +1811,344 @@
       <c r="A20" s="39">
         <v>45874</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="30">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13">
         <v>45877</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="21" t="s">
+    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="30">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45">
+        <v>45875</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="13">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C27" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="30">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="13">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="30">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D30" s="13">
+        <v>45884</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45">
+        <v>45876</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="30">
+        <v>45884</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="13">
+        <v>45884</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="30">
+        <v>45884</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="13">
+        <v>45884</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="30">
+        <v>45884</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="13">
+        <v>45884</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="30">
+        <v>45884</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="47"/>
+      <c r="B38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="13">
+        <v>45884</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45">
         <v>45877</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="14">
-        <v>45877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="32">
-        <v>45877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="14">
-        <v>45877</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
-        <v>45875</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10">
-        <v>45877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="14">
-        <v>45877</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="21" t="s">
+      <c r="D39" s="30">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="13">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="30">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="13">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="30">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45">
+        <v>45880</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="13">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="30">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="47"/>
+      <c r="B46" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="32">
-        <v>45877</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="14">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="32">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="14">
-        <v>45884</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
-        <v>45876</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="32">
-        <v>45884</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="14">
-        <v>45884</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="32">
-        <v>45884</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="14">
-        <v>45884</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="32">
-        <v>45884</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="14">
-        <v>45884</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="32">
-        <v>45884</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="14">
-        <v>45884</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46">
-        <v>45877</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="32">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="14">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="32">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="14">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="32">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
-        <v>45880</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="14">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="32">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="14">
+      <c r="C46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="13">
         <v>45884</v>
       </c>
     </row>
@@ -2114,111 +2156,111 @@
       <c r="A47" s="39">
         <v>45881</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="30">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="13">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="30">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="32">
+      <c r="C50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="13">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48">
+        <v>45882</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="30">
         <v>45884</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="12" t="s">
+    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="49"/>
+      <c r="B52" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="14">
+      <c r="C52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="13">
         <v>45891</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="33" t="s">
+    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="49"/>
+      <c r="B53" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="30">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="49"/>
+      <c r="B54" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C54" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D54" s="13">
         <v>45891</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="13" t="s">
+    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="49"/>
+      <c r="B55" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="14">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44">
-        <v>45882</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="32">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="14">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="32">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="14">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="32">
+      <c r="D55" s="30">
         <v>45891</v>
       </c>
     </row>
@@ -2226,37 +2268,37 @@
       <c r="A56" s="39">
         <v>45884</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="13">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="16">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="14">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="18">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="14">
+      <c r="D58" s="13">
         <v>45891</v>
       </c>
     </row>
@@ -2264,73 +2306,73 @@
       <c r="A59" s="39">
         <v>45887</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="16">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="18">
+      <c r="C60" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="13">
         <v>45891</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="12" t="s">
+    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="16">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="14">
+      <c r="C62" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="13">
         <v>45891</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="19" t="s">
+    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="18">
+      <c r="C63" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="16">
         <v>45891</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="12" t="s">
+    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="14">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="18">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <v>45891</v>
       </c>
     </row>
@@ -2338,85 +2380,85 @@
       <c r="A65" s="39">
         <v>45888</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="16">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="13">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40"/>
+      <c r="B67" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="16">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
+      <c r="B68" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="18">
+      <c r="C68" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="13">
         <v>45891</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="14">
+    <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="16">
         <v>45891</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="18">
+    <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="13">
         <v>45891</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="14">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="19" t="s">
+    <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="18">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="14">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="16">
         <v>45891</v>
       </c>
     </row>
@@ -2424,37 +2466,37 @@
       <c r="A72" s="39">
         <v>45889</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="14">
+      <c r="B72" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="13">
         <v>45891</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="19" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="16">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="43"/>
+      <c r="B74" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="18">
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="14">
+      <c r="C74" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="13">
         <v>45891</v>
       </c>
     </row>
@@ -2462,25 +2504,25 @@
       <c r="A75" s="39">
         <v>45890</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="18">
+      <c r="B75" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="16">
         <v>45891</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="14">
+      <c r="A76" s="41"/>
+      <c r="B76" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="13">
         <v>45891</v>
       </c>
     </row>
@@ -2488,71 +2530,71 @@
       <c r="A77" s="39">
         <v>45890</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C77" s="20" t="s">
+      <c r="B77" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="18"/>
+      <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="13" t="s">
+      <c r="A78" s="43"/>
+      <c r="B78" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="14"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>45894</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="16">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40"/>
+      <c r="B80" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="13">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="40"/>
+      <c r="B81" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="18">
+      <c r="C81" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="16">
         <v>45894</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="12" t="s">
+    <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="14">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="18">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="14">
+      <c r="C82" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="13">
         <v>45894</v>
       </c>
     </row>
@@ -2560,49 +2602,49 @@
       <c r="A83" s="39">
         <v>45895</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="40"/>
+      <c r="B84" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="13">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="40"/>
+      <c r="B85" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="18">
+      <c r="C85" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="16">
         <v>45895</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="12" t="s">
+    <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="41"/>
+      <c r="B86" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="14">
-        <v>45895</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="18">
-        <v>45895</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="14">
+      <c r="C86" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="13">
         <v>45895</v>
       </c>
     </row>
@@ -2610,37 +2652,37 @@
       <c r="A87" s="39">
         <v>45896</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="16">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="40"/>
+      <c r="B88" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="13">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="41"/>
+      <c r="B89" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C87" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="18">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="14">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="18">
+      <c r="D89" s="16">
         <v>45902</v>
       </c>
     </row>
@@ -2648,51 +2690,51 @@
       <c r="A90" s="39">
         <v>45897</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="13">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="40"/>
+      <c r="B91" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="16">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+      <c r="B92" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D92" s="13">
         <v>45902</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-      <c r="B91" s="19" t="s">
+    <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="35">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="18">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="14">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="37">
-        <v>45898</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="18">
+      <c r="D93" s="16">
         <v>45902</v>
       </c>
     </row>
@@ -2700,25 +2742,25 @@
       <c r="A94" s="39">
         <v>45901</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="13" t="s">
+      <c r="B94" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="13">
         <v>45902</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" s="20" t="s">
+      <c r="A95" s="41"/>
+      <c r="B95" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="16">
         <v>45902</v>
       </c>
     </row>
@@ -2726,51 +2768,51 @@
       <c r="A96" s="39">
         <v>45902</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="13">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="16">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="B98" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="14">
+      <c r="C98" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="13">
         <v>45902</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="19" t="s">
+    <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="36">
+        <v>45903</v>
+      </c>
+      <c r="B99" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="18">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="14">
-        <v>45902</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="38">
-        <v>45903</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="16">
         <v>45905</v>
       </c>
     </row>
@@ -2778,49 +2820,49 @@
       <c r="A100" s="39">
         <v>45904</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="14">
+      <c r="B100" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="13">
         <v>45905</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="19" t="s">
+      <c r="A101" s="40"/>
+      <c r="B101" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="16">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="40"/>
+      <c r="B102" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="13">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="41"/>
+      <c r="B103" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C101" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="18">
-        <v>45905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
-      <c r="B102" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="14">
-        <v>45905</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="16">
         <v>45905</v>
       </c>
     </row>
@@ -2828,85 +2870,85 @@
       <c r="A104" s="39">
         <v>45905</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="14">
+      <c r="B104" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="13">
         <v>45905</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="19" t="s">
+      <c r="A105" s="42"/>
+      <c r="B105" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="16">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42"/>
+      <c r="B106" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="18">
+      <c r="C106" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="13">
         <v>45905</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="12" t="s">
+    <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42"/>
+      <c r="B107" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="16">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42"/>
+      <c r="B108" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="14">
+      <c r="C108" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="13">
         <v>45905</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="19" t="s">
+    <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="42"/>
+      <c r="B109" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="18">
+      <c r="C109" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="16">
         <v>45905</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="12" t="s">
+    <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="43"/>
+      <c r="B110" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="14">
-        <v>45905</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="18">
-        <v>45905</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="14">
+      <c r="C110" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="13">
         <v>45905</v>
       </c>
     </row>
@@ -2914,49 +2956,49 @@
       <c r="A111" s="39">
         <v>45908</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="18">
+      <c r="B111" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="16">
         <v>45912</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="14">
+      <c r="A112" s="40"/>
+      <c r="B112" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="13">
         <v>45912</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="19" t="s">
+      <c r="A113" s="40"/>
+      <c r="B113" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="16">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="41"/>
+      <c r="B114" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C114" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D113" s="18">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="14">
+      <c r="D114" s="13">
         <v>45912</v>
       </c>
     </row>
@@ -2964,37 +3006,37 @@
       <c r="A115" s="39">
         <v>45909</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" s="20" t="s">
+      <c r="B115" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="16">
         <v>45912</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C116" s="13" t="s">
+      <c r="A116" s="42"/>
+      <c r="B116" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="13">
         <v>45912</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" s="20" t="s">
+      <c r="A117" s="43"/>
+      <c r="B117" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="16">
         <v>45912</v>
       </c>
     </row>
@@ -3002,37 +3044,37 @@
       <c r="A118" s="39">
         <v>45910</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="13">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="42"/>
+      <c r="B119" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="16">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="43"/>
+      <c r="B120" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C118" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="14">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="18">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
-      <c r="B120" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="13">
         <v>45912</v>
       </c>
     </row>
@@ -3040,37 +3082,37 @@
       <c r="A121" s="39">
         <v>45911</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="16">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="42"/>
+      <c r="B122" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="13">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="43"/>
+      <c r="B123" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C123" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="18">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="14">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="18">
+      <c r="D123" s="16">
         <v>45912</v>
       </c>
     </row>
@@ -3078,1098 +3120,1171 @@
       <c r="A124" s="39">
         <v>45912</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="13">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="40"/>
+      <c r="B125" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="16">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="40"/>
+      <c r="B126" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="13">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+      <c r="B127" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="14">
+      <c r="C127" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="16">
         <v>45912</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-      <c r="B125" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="18">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="12" t="s">
+    <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="39">
+        <v>45915</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C126" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="14">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="43"/>
-      <c r="B127" s="19" t="s">
+      <c r="C128" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="13">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="42"/>
+      <c r="B129" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C127" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="18">
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-    </row>
-    <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="36"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="18"/>
+      <c r="C129" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="16">
+        <v>45915</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="14"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="13">
+        <v>45916</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="36"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="18"/>
+      <c r="A131" s="39">
+        <v>45916</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="16">
+        <v>45916</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="36"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="13">
+        <v>45916</v>
+      </c>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="18"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="16">
+        <v>45916</v>
+      </c>
     </row>
     <row r="134" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="13">
+        <v>45919</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="36"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="18"/>
+      <c r="A135" s="37">
+        <v>45917</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="16">
+        <v>45919</v>
+      </c>
     </row>
     <row r="136" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="36"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
+      <c r="A136" s="39">
+        <v>45918</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="13">
+        <v>45919</v>
+      </c>
     </row>
     <row r="137" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="36"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="18"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="16">
+        <v>45919</v>
+      </c>
     </row>
     <row r="138" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="36"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
+      <c r="A138" s="38"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="36"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="18"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="16"/>
     </row>
     <row r="140" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="36"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="36"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="18"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="16"/>
     </row>
     <row r="142" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="36"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="36"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="18"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="16"/>
     </row>
     <row r="144" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="36"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="18"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="16"/>
     </row>
     <row r="146" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="36"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="36"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="18"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="16"/>
     </row>
     <row r="148" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="36"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="18"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="16"/>
     </row>
     <row r="150" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="36"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="18"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="16"/>
     </row>
     <row r="152" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="18"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="16"/>
     </row>
     <row r="154" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="36"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="36"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="18"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="16"/>
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="36"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="18"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="16"/>
     </row>
     <row r="158" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="36"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="36"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="18"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="16"/>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="36"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="36"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="18"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="16"/>
     </row>
     <row r="162" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="36"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="36"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="18"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="16"/>
     </row>
     <row r="164" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="36"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="165" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="36"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="18"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="16"/>
     </row>
     <row r="166" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="36"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="13"/>
     </row>
     <row r="167" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="36"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="18"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="16"/>
     </row>
     <row r="168" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="36"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="13"/>
     </row>
     <row r="169" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="36"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="18"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="16"/>
     </row>
     <row r="170" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="36"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="36"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="18"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="13"/>
     </row>
     <row r="173" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="36"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="18"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="16"/>
     </row>
     <row r="174" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="13"/>
     </row>
     <row r="175" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="36"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="18"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="16"/>
     </row>
     <row r="176" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="36"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="18"/>
+      <c r="A177" s="34"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="16"/>
     </row>
     <row r="178" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="36"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="13"/>
     </row>
     <row r="179" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="36"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="20"/>
-      <c r="D179" s="18"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="16"/>
     </row>
     <row r="180" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="36"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="13"/>
     </row>
     <row r="181" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="36"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="18"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="16"/>
     </row>
     <row r="182" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="36"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="13"/>
     </row>
     <row r="183" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="36"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="18"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="16"/>
     </row>
     <row r="184" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="36"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="36"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="18"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="16"/>
     </row>
     <row r="186" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="36"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="36"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="18"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="16"/>
     </row>
     <row r="188" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="36"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="36"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="18"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="16"/>
     </row>
     <row r="190" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="36"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="36"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="18"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="16"/>
     </row>
     <row r="192" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="36"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="13"/>
     </row>
     <row r="193" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="36"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="18"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="16"/>
     </row>
     <row r="194" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="36"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="14"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="36"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="18"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="16"/>
     </row>
     <row r="196" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="36"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="14"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="13"/>
     </row>
     <row r="197" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="36"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="18"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="16"/>
     </row>
     <row r="198" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="36"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="14"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="36"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="18"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="16"/>
     </row>
     <row r="200" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="36"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="14"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="13"/>
     </row>
     <row r="201" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="36"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="18"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="16"/>
     </row>
     <row r="202" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="36"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="14"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="13"/>
     </row>
     <row r="203" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="36"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="20"/>
-      <c r="D203" s="18"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="16"/>
     </row>
     <row r="204" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="36"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="14"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="36"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="18"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="16"/>
     </row>
     <row r="206" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="36"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="14"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="36"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="18"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="16"/>
     </row>
     <row r="208" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="36"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="14"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="36"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="18"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="16"/>
     </row>
     <row r="210" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="36"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="14"/>
+      <c r="A210" s="34"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="211" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="36"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="18"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="16"/>
     </row>
     <row r="212" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="36"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="14"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="13"/>
     </row>
     <row r="213" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="36"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="18"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="16"/>
     </row>
     <row r="214" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="36"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="14"/>
+      <c r="A214" s="34"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="215" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="36"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="20"/>
-      <c r="D215" s="18"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="16"/>
     </row>
     <row r="216" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="36"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="14"/>
+      <c r="A216" s="34"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="13"/>
     </row>
     <row r="217" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="36"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="18"/>
+      <c r="A217" s="34"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="16"/>
     </row>
     <row r="218" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="36"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="14"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="13"/>
     </row>
     <row r="219" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="36"/>
-      <c r="B219" s="19"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="18"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="16"/>
     </row>
     <row r="220" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="36"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="14"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="13"/>
     </row>
     <row r="221" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="36"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="18"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="16"/>
     </row>
     <row r="222" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="36"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="13"/>
-      <c r="D222" s="14"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="13"/>
     </row>
     <row r="223" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="36"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="20"/>
-      <c r="D223" s="18"/>
+      <c r="A223" s="34"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="16"/>
     </row>
     <row r="224" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="36"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="14"/>
+      <c r="A224" s="34"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="36"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="20"/>
-      <c r="D225" s="18"/>
+      <c r="A225" s="34"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="18"/>
+      <c r="D225" s="16"/>
     </row>
     <row r="226" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="36"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="13"/>
-      <c r="D226" s="14"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="13"/>
     </row>
     <row r="227" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="36"/>
-      <c r="B227" s="19"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="18"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="16"/>
     </row>
     <row r="228" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="36"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="13"/>
-      <c r="D228" s="14"/>
+      <c r="A228" s="34"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="36"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="18"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="16"/>
     </row>
     <row r="230" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="36"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="13"/>
-      <c r="D230" s="14"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="36"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="18"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="16"/>
     </row>
     <row r="232" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="36"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="14"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="36"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="20"/>
-      <c r="D233" s="18"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="16"/>
     </row>
     <row r="234" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="36"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="14"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="36"/>
-      <c r="B235" s="19"/>
-      <c r="C235" s="20"/>
-      <c r="D235" s="18"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="17"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="16"/>
     </row>
     <row r="236" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="36"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="14"/>
+      <c r="A236" s="34"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="36"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="18"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="16"/>
     </row>
     <row r="238" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="36"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="14"/>
+      <c r="A238" s="34"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="13"/>
     </row>
     <row r="239" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="36"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="18"/>
+      <c r="A239" s="34"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="16"/>
     </row>
     <row r="240" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="36"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="14"/>
+      <c r="A240" s="34"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="13"/>
     </row>
     <row r="241" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="36"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="20"/>
-      <c r="D241" s="18"/>
+      <c r="A241" s="34"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="16"/>
     </row>
     <row r="242" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="36"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="14"/>
+      <c r="A242" s="34"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="13"/>
     </row>
     <row r="243" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="36"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="18"/>
+      <c r="A243" s="34"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="16"/>
     </row>
     <row r="244" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="36"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="14"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="13"/>
     </row>
     <row r="245" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="36"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="20"/>
-      <c r="D245" s="18"/>
+      <c r="A245" s="34"/>
+      <c r="B245" s="17"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="16"/>
     </row>
     <row r="246" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="36"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="13"/>
-      <c r="D246" s="14"/>
+      <c r="A246" s="34"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="13"/>
     </row>
     <row r="247" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="36"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="20"/>
-      <c r="D247" s="18"/>
+      <c r="A247" s="34"/>
+      <c r="B247" s="17"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="16"/>
     </row>
     <row r="248" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="36"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="14"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="13"/>
     </row>
     <row r="249" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="36"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="18"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="16"/>
     </row>
     <row r="250" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="36"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="14"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="36"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="18"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="17"/>
+      <c r="C251" s="18"/>
+      <c r="D251" s="16"/>
     </row>
     <row r="252" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="36"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="13"/>
-      <c r="D252" s="14"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="36"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="18"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="16"/>
     </row>
     <row r="254" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="36"/>
-      <c r="B254" s="12"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="14"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="13"/>
     </row>
     <row r="255" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="36"/>
-      <c r="B255" s="19"/>
-      <c r="C255" s="20"/>
-      <c r="D255" s="18"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="16"/>
     </row>
     <row r="256" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="36"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="13"/>
-      <c r="D256" s="14"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="13"/>
     </row>
     <row r="257" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="36"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="20"/>
-      <c r="D257" s="18"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="16"/>
     </row>
     <row r="258" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="36"/>
-      <c r="B258" s="12"/>
-      <c r="C258" s="13"/>
-      <c r="D258" s="14"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="13"/>
     </row>
     <row r="259" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="36"/>
-      <c r="B259" s="19"/>
-      <c r="C259" s="20"/>
-      <c r="D259" s="18"/>
+      <c r="A259" s="34"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="16"/>
     </row>
     <row r="260" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="36"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="13"/>
-      <c r="D260" s="14"/>
+      <c r="A260" s="34"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="13"/>
     </row>
     <row r="261" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="36"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="20"/>
-      <c r="D261" s="18"/>
+      <c r="A261" s="34"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="16"/>
     </row>
     <row r="262" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="36"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="14"/>
+      <c r="A262" s="34"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="13"/>
     </row>
     <row r="263" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="36"/>
-      <c r="B263" s="19"/>
-      <c r="C263" s="20"/>
-      <c r="D263" s="18"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="18"/>
+      <c r="D263" s="16"/>
     </row>
     <row r="264" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="36"/>
-      <c r="B264" s="12"/>
-      <c r="C264" s="13"/>
-      <c r="D264" s="14"/>
+      <c r="A264" s="34"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="13"/>
     </row>
     <row r="265" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="36"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="20"/>
-      <c r="D265" s="18"/>
+      <c r="A265" s="34"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="16"/>
     </row>
     <row r="266" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="36"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="13"/>
-      <c r="D266" s="14"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="13"/>
     </row>
     <row r="267" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="36"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="20"/>
-      <c r="D267" s="18"/>
+      <c r="A267" s="34"/>
+      <c r="B267" s="17"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="16"/>
     </row>
     <row r="268" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="36"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="13"/>
-      <c r="D268" s="14"/>
+      <c r="A268" s="34"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="13"/>
     </row>
     <row r="269" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="36"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="20"/>
-      <c r="D269" s="18"/>
+      <c r="A269" s="34"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="16"/>
     </row>
     <row r="270" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="36"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="13"/>
-      <c r="D270" s="14"/>
+      <c r="A270" s="34"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="13"/>
     </row>
     <row r="271" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="36"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="20"/>
-      <c r="D271" s="18"/>
+      <c r="A271" s="34"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="16"/>
     </row>
     <row r="272" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="36"/>
-      <c r="B272" s="12"/>
-      <c r="C272" s="13"/>
-      <c r="D272" s="14"/>
+      <c r="A272" s="34"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="36"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="20"/>
-      <c r="D273" s="18"/>
+      <c r="A273" s="34"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="16"/>
     </row>
     <row r="274" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="36"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="13"/>
-      <c r="D274" s="14"/>
+      <c r="A274" s="34"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="36"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="20"/>
-      <c r="D275" s="18"/>
+      <c r="A275" s="34"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="16"/>
     </row>
     <row r="276" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="36"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="13"/>
-      <c r="D276" s="14"/>
+      <c r="A276" s="34"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="13"/>
     </row>
     <row r="277" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="36"/>
-      <c r="B277" s="19"/>
-      <c r="C277" s="20"/>
-      <c r="D277" s="18"/>
+      <c r="A277" s="34"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="18"/>
+      <c r="D277" s="16"/>
     </row>
     <row r="278" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="36"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="13"/>
-      <c r="D278" s="14"/>
+      <c r="A278" s="34"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="13"/>
     </row>
     <row r="279" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="36"/>
-      <c r="B279" s="19"/>
-      <c r="C279" s="20"/>
-      <c r="D279" s="18"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="16"/>
     </row>
     <row r="280" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="36"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="13"/>
-      <c r="D280" s="14"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="13"/>
     </row>
     <row r="281" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="36"/>
-      <c r="B281" s="19"/>
-      <c r="C281" s="20"/>
-      <c r="D281" s="18"/>
+      <c r="A281" s="34"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="16"/>
     </row>
     <row r="282" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="36"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="13"/>
-      <c r="D282" s="14"/>
+      <c r="A282" s="34"/>
+      <c r="B282" s="11"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="13"/>
     </row>
     <row r="283" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="36"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="20"/>
-      <c r="D283" s="18"/>
+      <c r="A283" s="34"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="18"/>
+      <c r="D283" s="16"/>
     </row>
     <row r="284" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="36"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="13"/>
-      <c r="D284" s="14"/>
+      <c r="A284" s="34"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="13"/>
     </row>
     <row r="285" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="36"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="20"/>
-      <c r="D285" s="18"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="17"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="16"/>
     </row>
     <row r="286" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="36"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="13"/>
-      <c r="D286" s="14"/>
+      <c r="A286" s="34"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="13"/>
     </row>
     <row r="287" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="36"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="20"/>
-      <c r="D287" s="18"/>
+      <c r="A287" s="34"/>
+      <c r="B287" s="17"/>
+      <c r="C287" s="18"/>
+      <c r="D287" s="16"/>
     </row>
     <row r="288" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="36"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="13"/>
-      <c r="D288" s="14"/>
+      <c r="A288" s="34"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="13"/>
     </row>
     <row r="289" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="36"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="20"/>
-      <c r="D289" s="18"/>
+      <c r="A289" s="34"/>
+      <c r="B289" s="17"/>
+      <c r="C289" s="18"/>
+      <c r="D289" s="16"/>
     </row>
     <row r="290" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="36"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="13"/>
-      <c r="D290" s="14"/>
+      <c r="A290" s="34"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="36"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="20"/>
-      <c r="D291" s="18"/>
+      <c r="A291" s="34"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="16"/>
     </row>
     <row r="292" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="36"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="13"/>
-      <c r="D292" s="14"/>
+      <c r="A292" s="34"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="13"/>
     </row>
     <row r="293" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="36"/>
-      <c r="B293" s="19"/>
-      <c r="C293" s="20"/>
-      <c r="D293" s="18"/>
+      <c r="A293" s="34"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="18"/>
+      <c r="D293" s="16"/>
     </row>
     <row r="294" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="36"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="13"/>
-      <c r="D294" s="14"/>
+      <c r="A294" s="34"/>
+      <c r="B294" s="11"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="13"/>
     </row>
     <row r="295" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="36"/>
-      <c r="B295" s="19"/>
-      <c r="C295" s="20"/>
-      <c r="D295" s="18"/>
+      <c r="A295" s="34"/>
+      <c r="B295" s="17"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="16"/>
     </row>
     <row r="296" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="36"/>
-      <c r="B296" s="12"/>
-      <c r="C296" s="13"/>
-      <c r="D296" s="14"/>
+      <c r="A296" s="34"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="13"/>
     </row>
     <row r="297" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="36"/>
-      <c r="B297" s="19"/>
-      <c r="C297" s="20"/>
-      <c r="D297" s="18"/>
+      <c r="A297" s="34"/>
+      <c r="B297" s="17"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="16"/>
     </row>
     <row r="298" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="36"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="13"/>
-      <c r="D298" s="14"/>
+      <c r="A298" s="34"/>
+      <c r="B298" s="11"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="13"/>
     </row>
     <row r="299" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="36"/>
-      <c r="B299" s="19"/>
-      <c r="C299" s="20"/>
-      <c r="D299" s="18"/>
+      <c r="A299" s="34"/>
+      <c r="B299" s="17"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="16"/>
     </row>
     <row r="300" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="36"/>
-      <c r="B300" s="12"/>
-      <c r="C300" s="13"/>
-      <c r="D300" s="14"/>
+      <c r="A300" s="34"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A124:A127"/>
+  <mergeCells count="33">
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A25:A30"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A89"/>
@@ -4177,14 +4292,9 @@
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A79:A82"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
     <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A128:A130"/>
     <mergeCell ref="A59:A64"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A94:A95"/>
@@ -4193,6 +4303,10 @@
     <mergeCell ref="A100:A103"/>
     <mergeCell ref="A104:A110"/>
     <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A90:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -6843,32 +6957,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="10.5" style="11"/>
+    <col min="1" max="1" width="19" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="10.5" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6893,239 +7007,239 @@
   <cols>
     <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="148.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="229.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="25">
+        <v>53</v>
+      </c>
+      <c r="C2" s="23">
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="25">
+        <v>53</v>
+      </c>
+      <c r="C3" s="23">
         <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="25">
+        <v>53</v>
+      </c>
+      <c r="C4" s="23">
         <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>56</v>
+      <c r="D5" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="25" t="s">
         <v>53</v>
       </c>
+      <c r="C6" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="25">
+        <v>28</v>
+      </c>
+      <c r="C7" s="23">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="25">
         <v>28</v>
       </c>
+      <c r="C8" s="23">
+        <v>28</v>
+      </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="25">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25">
+        <v>15</v>
+      </c>
+      <c r="C12" s="23">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="25">
         <v>15</v>
       </c>
+      <c r="C13" s="23">
+        <v>15</v>
+      </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23">
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="23">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="25">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="25">
+        <v>23</v>
+      </c>
+      <c r="C16" s="23">
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7151,33 +7265,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
